--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_11_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_11_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2692160.87172066</v>
+        <v>2691442.220281377</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2654856.114805179</v>
+        <v>2654856.114805181</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.029273656</v>
+        <v>504792.0292736552</v>
       </c>
     </row>
     <row r="9">
@@ -677,49 +677,49 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>8.816525072005941</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,64 +738,64 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>8.816525072005941</v>
       </c>
-      <c r="F3" t="n">
+      <c r="V3" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="G3" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -820,67 +820,67 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="E4" t="n">
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>8.816525072005941</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="F4" t="n">
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8.816525072005941</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -941,17 +941,17 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>8.816525072005941</v>
+      </c>
+      <c r="U5" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1075,34 +1075,34 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
       <c r="S7" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>10.00967878293136</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>11.94294668035388</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>10.5193474360557</v>
+        <v>0.5096686531243404</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="V9" t="n">
-        <v>10.5193474360557</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,55 +1297,55 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>10.5193474360557</v>
       </c>
-      <c r="F10" t="n">
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="G10" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>265.9342661927008</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>38.8665416966366</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>306.8482198505835</v>
       </c>
       <c r="G11" t="n">
-        <v>308.2753554535429</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>221.148175365646</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>48.4149025886565</v>
+        <v>48.41490258865655</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.66173702352447</v>
+        <v>70.66173702352449</v>
       </c>
       <c r="T11" t="n">
         <v>116.738303754939</v>
@@ -1436,7 +1436,7 @@
         <v>275.0483801413737</v>
       </c>
       <c r="Y11" t="n">
-        <v>102.7362086656032</v>
+        <v>286.4449779375725</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>96.32307605837826</v>
       </c>
       <c r="I12" t="n">
-        <v>58.3747058083079</v>
+        <v>58.37470580830792</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>42.37278301643489</v>
+        <v>42.37278301643494</v>
       </c>
       <c r="S12" t="n">
         <v>146.2414144859818</v>
@@ -1540,13 +1540,13 @@
         <v>47.79438949213281</v>
       </c>
       <c r="G13" t="n">
-        <v>63.84205869041105</v>
+        <v>63.84205869041104</v>
       </c>
       <c r="H13" t="n">
-        <v>52.59892542197039</v>
+        <v>52.59892542197041</v>
       </c>
       <c r="I13" t="n">
-        <v>32.77203779996179</v>
+        <v>32.77203779996181</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.65685186576081</v>
+        <v>34.65685186576085</v>
       </c>
       <c r="S13" t="n">
         <v>104.4546309132339</v>
       </c>
       <c r="T13" t="n">
-        <v>126.7156523942872</v>
+        <v>126.7156523942873</v>
       </c>
       <c r="U13" t="n">
         <v>181.1444945367304</v>
@@ -1607,10 +1607,10 @@
         <v>286.9416451904911</v>
       </c>
       <c r="C14" t="n">
-        <v>274.9529621481728</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>183.6505817011375</v>
+        <v>265.9342661927008</v>
       </c>
       <c r="E14" t="n">
         <v>287.6764037626064</v>
@@ -1619,7 +1619,7 @@
         <v>306.8482198505835</v>
       </c>
       <c r="G14" t="n">
-        <v>308.2753554535429</v>
+        <v>308.275355453543</v>
       </c>
       <c r="H14" t="n">
         <v>221.148175365646</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.66173702352447</v>
+        <v>70.66173702352449</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>116.738303754939</v>
       </c>
       <c r="U14" t="n">
         <v>149.134533407241</v>
@@ -1667,13 +1667,13 @@
         <v>230.4480224306702</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>255.7481219086271</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>286.4449779375725</v>
+        <v>106.6278299306161</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>96.32307605837826</v>
       </c>
       <c r="I15" t="n">
-        <v>58.3747058083079</v>
+        <v>58.37470580830792</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>42.37278301643489</v>
+        <v>42.37278301643492</v>
       </c>
       <c r="S15" t="n">
         <v>146.2414144859818</v>
@@ -1783,7 +1783,7 @@
         <v>52.59892542197041</v>
       </c>
       <c r="I16" t="n">
-        <v>32.77203779996179</v>
+        <v>32.7720377999618</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.65685186576082</v>
+        <v>34.65685186576084</v>
       </c>
       <c r="S16" t="n">
         <v>104.4546309132339</v>
       </c>
       <c r="T16" t="n">
-        <v>126.7156523942872</v>
+        <v>126.7156523942873</v>
       </c>
       <c r="U16" t="n">
         <v>181.1444945367304</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>234.8117530264552</v>
+        <v>234.8117530264551</v>
       </c>
       <c r="C17" t="n">
-        <v>222.823069984137</v>
+        <v>222.8230699841369</v>
       </c>
       <c r="D17" t="n">
-        <v>213.804374028665</v>
+        <v>213.8043740286648</v>
       </c>
       <c r="E17" t="n">
-        <v>235.5465115985705</v>
+        <v>235.5465115985704</v>
       </c>
       <c r="F17" t="n">
-        <v>254.7183276865477</v>
+        <v>254.7183276865475</v>
       </c>
       <c r="G17" t="n">
-        <v>256.1454632895071</v>
+        <v>256.145463289507</v>
       </c>
       <c r="H17" t="n">
-        <v>169.0182832016102</v>
+        <v>169.01828320161</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>18.53184485948861</v>
+        <v>18.53184485948849</v>
       </c>
       <c r="T17" t="n">
-        <v>64.60841159090313</v>
+        <v>64.608411590903</v>
       </c>
       <c r="U17" t="n">
-        <v>97.00464124320516</v>
+        <v>97.00464124320501</v>
       </c>
       <c r="V17" t="n">
-        <v>178.3181302666344</v>
+        <v>178.3181302666342</v>
       </c>
       <c r="W17" t="n">
-        <v>203.6182297445913</v>
+        <v>203.6182297445911</v>
       </c>
       <c r="X17" t="n">
-        <v>222.9184879773379</v>
+        <v>222.9184879773377</v>
       </c>
       <c r="Y17" t="n">
-        <v>234.3150857735367</v>
+        <v>234.3150857735376</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>96.32307605837826</v>
       </c>
       <c r="I18" t="n">
-        <v>58.3747058083079</v>
+        <v>58.37470580830792</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>42.37278301643489</v>
+        <v>42.37278301643492</v>
       </c>
       <c r="S18" t="n">
         <v>146.2414144859818</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26.42846390115233</v>
+        <v>26.42846390115218</v>
       </c>
       <c r="C19" t="n">
-        <v>12.62845874655281</v>
+        <v>12.62845874655267</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>48.50480176249354</v>
+        <v>11.71216652637505</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4690332579345546</v>
+        <v>0.4690332579344165</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>52.32473874919807</v>
+        <v>89.11737398531757</v>
       </c>
       <c r="T19" t="n">
-        <v>74.5857602302514</v>
+        <v>74.58576023025127</v>
       </c>
       <c r="U19" t="n">
-        <v>129.0146023726945</v>
+        <v>129.0146023726944</v>
       </c>
       <c r="V19" t="n">
-        <v>102.8366003007779</v>
+        <v>102.8366003007778</v>
       </c>
       <c r="W19" t="n">
-        <v>128.0034863713912</v>
+        <v>128.003486371391</v>
       </c>
       <c r="X19" t="n">
-        <v>73.64858836719429</v>
+        <v>73.64858836719415</v>
       </c>
       <c r="Y19" t="n">
-        <v>64.52345612326198</v>
+        <v>64.52345612326184</v>
       </c>
     </row>
     <row r="20">
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>36.79263523611964</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>11.71216652637505</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>52.32473874919793</v>
+        <v>89.11737398531757</v>
       </c>
       <c r="T22" t="n">
         <v>74.58576023025127</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>18.53184485948849</v>
+        <v>18.5318448594885</v>
       </c>
       <c r="T23" t="n">
-        <v>64.608411590903</v>
+        <v>64.60841159090302</v>
       </c>
       <c r="U23" t="n">
         <v>97.00464124320501</v>
@@ -2527,7 +2527,7 @@
         <v>52.32473874919793</v>
       </c>
       <c r="T25" t="n">
-        <v>111.3783954663709</v>
+        <v>74.58576023025127</v>
       </c>
       <c r="U25" t="n">
         <v>129.0146023726944</v>
@@ -2536,7 +2536,7 @@
         <v>102.8366003007778</v>
       </c>
       <c r="W25" t="n">
-        <v>128.003486371391</v>
+        <v>164.7961216075107</v>
       </c>
       <c r="X25" t="n">
         <v>73.64858836719415</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>286.9416451904911</v>
+        <v>286.941645190491</v>
       </c>
       <c r="C26" t="n">
         <v>274.9529621481728</v>
@@ -2573,7 +2573,7 @@
         <v>221.148175365646</v>
       </c>
       <c r="I26" t="n">
-        <v>48.41490258865653</v>
+        <v>48.4149025886565</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.66173702352449</v>
+        <v>70.66173702352447</v>
       </c>
       <c r="T26" t="n">
         <v>116.738303754939</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.55835606518818</v>
+        <v>78.55835606518815</v>
       </c>
       <c r="C28" t="n">
-        <v>64.75835091058866</v>
+        <v>64.75835091058863</v>
       </c>
       <c r="D28" t="n">
-        <v>48.37971530816705</v>
+        <v>48.37971530816702</v>
       </c>
       <c r="E28" t="n">
-        <v>47.3274651639465</v>
+        <v>47.32746516394647</v>
       </c>
       <c r="F28" t="n">
-        <v>47.79438949213281</v>
+        <v>47.79438949213278</v>
       </c>
       <c r="G28" t="n">
-        <v>63.84205869041105</v>
+        <v>63.84205869041102</v>
       </c>
       <c r="H28" t="n">
-        <v>52.59892542197041</v>
+        <v>52.59892542197038</v>
       </c>
       <c r="I28" t="n">
-        <v>32.7720377999618</v>
+        <v>32.77203779996177</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65685186576084</v>
+        <v>34.65685186576081</v>
       </c>
       <c r="S28" t="n">
         <v>104.4546309132339</v>
       </c>
       <c r="T28" t="n">
-        <v>126.7156523942873</v>
+        <v>126.7156523942872</v>
       </c>
       <c r="U28" t="n">
         <v>181.1444945367304</v>
       </c>
       <c r="V28" t="n">
-        <v>154.9664924648138</v>
+        <v>154.9664924648137</v>
       </c>
       <c r="W28" t="n">
         <v>180.133378535427</v>
@@ -2810,7 +2810,7 @@
         <v>221.148175365646</v>
       </c>
       <c r="I29" t="n">
-        <v>48.41490258865655</v>
+        <v>48.41490258865652</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.66173702352448</v>
+        <v>70.66173702352449</v>
       </c>
       <c r="T29" t="n">
         <v>116.738303754939</v>
@@ -2889,7 +2889,7 @@
         <v>96.32307605837826</v>
       </c>
       <c r="I30" t="n">
-        <v>58.37470580830792</v>
+        <v>58.37470580830791</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>42.37278301643494</v>
+        <v>42.37278301643491</v>
       </c>
       <c r="S30" t="n">
         <v>146.2414144859818</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.55835606518816</v>
+        <v>78.55835606518819</v>
       </c>
       <c r="C31" t="n">
-        <v>64.75835091058865</v>
+        <v>64.75835091058867</v>
       </c>
       <c r="D31" t="n">
-        <v>48.37971530816704</v>
+        <v>48.37971530816706</v>
       </c>
       <c r="E31" t="n">
-        <v>47.32746516394648</v>
+        <v>47.32746516394651</v>
       </c>
       <c r="F31" t="n">
-        <v>47.79438949213279</v>
+        <v>47.79438949213282</v>
       </c>
       <c r="G31" t="n">
-        <v>63.84205869041104</v>
+        <v>63.84205869041106</v>
       </c>
       <c r="H31" t="n">
-        <v>52.5989254219704</v>
+        <v>52.59892542197042</v>
       </c>
       <c r="I31" t="n">
-        <v>32.77203779996179</v>
+        <v>32.77203779996181</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65685186576084</v>
+        <v>34.65685186576085</v>
       </c>
       <c r="S31" t="n">
         <v>104.4546309132339</v>
       </c>
       <c r="T31" t="n">
-        <v>126.7156523942872</v>
+        <v>126.7156523942873</v>
       </c>
       <c r="U31" t="n">
         <v>181.1444945367304</v>
@@ -3013,7 +3013,7 @@
         <v>180.133378535427</v>
       </c>
       <c r="X31" t="n">
-        <v>125.7784805312301</v>
+        <v>125.7784805312302</v>
       </c>
       <c r="Y31" t="n">
         <v>116.6533482872978</v>
@@ -3029,16 +3029,16 @@
         <v>286.4414701200699</v>
       </c>
       <c r="C32" t="n">
-        <v>274.4527870777517</v>
+        <v>274.4527870777516</v>
       </c>
       <c r="D32" t="n">
-        <v>265.4340911222797</v>
+        <v>265.4340911222796</v>
       </c>
       <c r="E32" t="n">
-        <v>287.1762286921852</v>
+        <v>287.1762286921851</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3480447801624</v>
+        <v>306.3480447801623</v>
       </c>
       <c r="G32" t="n">
         <v>307.7751803831218</v>
@@ -3047,7 +3047,7 @@
         <v>220.6480002952248</v>
       </c>
       <c r="I32" t="n">
-        <v>47.91472751823535</v>
+        <v>47.91472751823531</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.16156195310332</v>
+        <v>70.16156195310327</v>
       </c>
       <c r="T32" t="n">
         <v>116.2381286845178</v>
@@ -3086,13 +3086,13 @@
         <v>148.6343583368198</v>
       </c>
       <c r="V32" t="n">
-        <v>229.9478473602491</v>
+        <v>229.947847360249</v>
       </c>
       <c r="W32" t="n">
-        <v>255.247946838206</v>
+        <v>255.2479468382059</v>
       </c>
       <c r="X32" t="n">
-        <v>274.5482050709526</v>
+        <v>274.5482050709525</v>
       </c>
       <c r="Y32" t="n">
         <v>285.9448028671513</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.058180994767</v>
+        <v>78.05818099476696</v>
       </c>
       <c r="C34" t="n">
-        <v>64.25817584016748</v>
+        <v>64.25817584016744</v>
       </c>
       <c r="D34" t="n">
-        <v>47.87954023774587</v>
+        <v>47.87954023774583</v>
       </c>
       <c r="E34" t="n">
-        <v>46.82729009352532</v>
+        <v>46.82729009352528</v>
       </c>
       <c r="F34" t="n">
-        <v>47.29421442171163</v>
+        <v>47.29421442171159</v>
       </c>
       <c r="G34" t="n">
-        <v>63.34188361998986</v>
+        <v>63.34188361998982</v>
       </c>
       <c r="H34" t="n">
-        <v>52.09875035154923</v>
+        <v>52.09875035154919</v>
       </c>
       <c r="I34" t="n">
-        <v>32.27186272954062</v>
+        <v>32.27186272954058</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.15667679533966</v>
+        <v>34.15667679533962</v>
       </c>
       <c r="S34" t="n">
         <v>103.9544558428127</v>
       </c>
       <c r="T34" t="n">
-        <v>126.2154773238661</v>
+        <v>126.215477323866</v>
       </c>
       <c r="U34" t="n">
         <v>180.6443194663092</v>
       </c>
       <c r="V34" t="n">
-        <v>154.4663173943926</v>
+        <v>154.4663173943925</v>
       </c>
       <c r="W34" t="n">
-        <v>179.6332034650059</v>
+        <v>179.6332034650058</v>
       </c>
       <c r="X34" t="n">
-        <v>125.278305460809</v>
+        <v>125.2783054608089</v>
       </c>
       <c r="Y34" t="n">
-        <v>116.1531732168767</v>
+        <v>116.1531732168766</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>234.8117530264551</v>
+        <v>234.8117530264552</v>
       </c>
       <c r="C35" t="n">
-        <v>222.8230699841369</v>
+        <v>222.823069984137</v>
       </c>
       <c r="D35" t="n">
-        <v>213.8043740286648</v>
+        <v>213.8043740286649</v>
       </c>
       <c r="E35" t="n">
-        <v>235.5465115985704</v>
+        <v>235.5465115985705</v>
       </c>
       <c r="F35" t="n">
-        <v>254.7183276865475</v>
+        <v>254.7183276865476</v>
       </c>
       <c r="G35" t="n">
-        <v>256.145463289507</v>
+        <v>256.1454632895071</v>
       </c>
       <c r="H35" t="n">
-        <v>169.01828320161</v>
+        <v>169.0182832016101</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>18.5318448594885</v>
+        <v>18.53184485948861</v>
       </c>
       <c r="T35" t="n">
-        <v>64.60841159090302</v>
+        <v>64.60841159090312</v>
       </c>
       <c r="U35" t="n">
-        <v>97.00464124320501</v>
+        <v>97.00464124320513</v>
       </c>
       <c r="V35" t="n">
-        <v>178.3181302666342</v>
+        <v>178.3181302666343</v>
       </c>
       <c r="W35" t="n">
-        <v>203.6182297445911</v>
+        <v>203.6182297445912</v>
       </c>
       <c r="X35" t="n">
-        <v>222.9184879773377</v>
+        <v>222.9184879773379</v>
       </c>
       <c r="Y35" t="n">
-        <v>234.3150857735365</v>
+        <v>234.3150857735366</v>
       </c>
     </row>
     <row r="36">
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.42846390115218</v>
+        <v>26.4284639011523</v>
       </c>
       <c r="C37" t="n">
-        <v>12.62845874655267</v>
+        <v>12.62845874655278</v>
       </c>
       <c r="D37" t="n">
-        <v>36.79263523611964</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>11.71216652637505</v>
+        <v>11.71216652637516</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4690332579344165</v>
+        <v>0.4690332579345302</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>52.32473874919793</v>
+        <v>52.32473874919805</v>
       </c>
       <c r="T37" t="n">
-        <v>74.58576023025127</v>
+        <v>74.58576023025138</v>
       </c>
       <c r="U37" t="n">
-        <v>129.0146023726944</v>
+        <v>129.0146023726945</v>
       </c>
       <c r="V37" t="n">
-        <v>102.8366003007778</v>
+        <v>102.8366003007779</v>
       </c>
       <c r="W37" t="n">
-        <v>128.003486371391</v>
+        <v>128.0034863713911</v>
       </c>
       <c r="X37" t="n">
-        <v>73.64858836719415</v>
+        <v>73.64858836719426</v>
       </c>
       <c r="Y37" t="n">
-        <v>64.52345612326184</v>
+        <v>101.3160913593804</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>234.8117530264551</v>
+        <v>234.8117530264552</v>
       </c>
       <c r="C38" t="n">
-        <v>222.8230699841369</v>
+        <v>222.823069984137</v>
       </c>
       <c r="D38" t="n">
-        <v>213.8043740286648</v>
+        <v>213.804374028665</v>
       </c>
       <c r="E38" t="n">
-        <v>235.5465115985704</v>
+        <v>235.5465115985705</v>
       </c>
       <c r="F38" t="n">
-        <v>254.7183276865475</v>
+        <v>254.7183276865477</v>
       </c>
       <c r="G38" t="n">
-        <v>256.145463289507</v>
+        <v>256.1454632895072</v>
       </c>
       <c r="H38" t="n">
-        <v>169.01828320161</v>
+        <v>169.0182832016102</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,28 +3548,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>-2.250999386887997e-12</v>
       </c>
       <c r="S38" t="n">
-        <v>18.5318448594885</v>
+        <v>18.53184485948864</v>
       </c>
       <c r="T38" t="n">
-        <v>64.60841159090302</v>
+        <v>64.60841159090315</v>
       </c>
       <c r="U38" t="n">
-        <v>97.00464124320501</v>
+        <v>97.00464124320516</v>
       </c>
       <c r="V38" t="n">
-        <v>178.3181302666342</v>
+        <v>178.3181302666344</v>
       </c>
       <c r="W38" t="n">
-        <v>203.6182297445911</v>
+        <v>203.6182297445913</v>
       </c>
       <c r="X38" t="n">
-        <v>222.9184879773377</v>
+        <v>222.9184879773379</v>
       </c>
       <c r="Y38" t="n">
-        <v>234.3150857735365</v>
+        <v>234.3150857735367</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.42846390115218</v>
+        <v>26.42846390115233</v>
       </c>
       <c r="C40" t="n">
-        <v>12.62845874655267</v>
+        <v>12.62845874655281</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>36.79263523611964</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>11.71216652637505</v>
+        <v>11.71216652637519</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4690332579344165</v>
+        <v>0.4690332579345586</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>19.14100628744681</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>52.32473874919793</v>
+        <v>52.32473874919808</v>
       </c>
       <c r="T40" t="n">
-        <v>74.58576023025127</v>
+        <v>92.23738917892288</v>
       </c>
       <c r="U40" t="n">
-        <v>129.0146023726944</v>
+        <v>129.0146023726945</v>
       </c>
       <c r="V40" t="n">
-        <v>102.8366003007778</v>
+        <v>102.8366003007779</v>
       </c>
       <c r="W40" t="n">
-        <v>128.003486371391</v>
+        <v>128.0034863713912</v>
       </c>
       <c r="X40" t="n">
-        <v>73.64858836719415</v>
+        <v>73.64858836719429</v>
       </c>
       <c r="Y40" t="n">
-        <v>64.52345612326184</v>
+        <v>64.52345612326198</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3740,25 @@
         <v>267.603087052115</v>
       </c>
       <c r="C41" t="n">
-        <v>255.6144040097967</v>
+        <v>255.6144040097968</v>
       </c>
       <c r="D41" t="n">
         <v>246.5957080543247</v>
       </c>
       <c r="E41" t="n">
-        <v>268.3378456242302</v>
+        <v>268.3378456242303</v>
       </c>
       <c r="F41" t="n">
-        <v>287.5096617122074</v>
+        <v>117.367782668138</v>
       </c>
       <c r="G41" t="n">
-        <v>288.9367973151669</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>201.8096172272699</v>
       </c>
       <c r="I41" t="n">
-        <v>29.07634445028043</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.32317888514837</v>
+        <v>51.3231788851484</v>
       </c>
       <c r="T41" t="n">
-        <v>97.39974561656288</v>
+        <v>97.39974561656291</v>
       </c>
       <c r="U41" t="n">
         <v>129.7959752688649</v>
@@ -3800,10 +3800,10 @@
         <v>211.1094642922941</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>236.4095637702511</v>
       </c>
       <c r="X41" t="n">
-        <v>3.964364963730484</v>
+        <v>255.7098220029977</v>
       </c>
       <c r="Y41" t="n">
         <v>267.1064197991964</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>42.37278301643494</v>
+        <v>42.37278301643492</v>
       </c>
       <c r="S42" t="n">
         <v>146.2414144859818</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>59.21979792681205</v>
+        <v>59.21979792681209</v>
       </c>
       <c r="C43" t="n">
-        <v>45.41979277221253</v>
+        <v>45.41979277221257</v>
       </c>
       <c r="D43" t="n">
-        <v>29.04115716979092</v>
+        <v>29.04115716979096</v>
       </c>
       <c r="E43" t="n">
-        <v>27.98890702557037</v>
+        <v>27.98890702557041</v>
       </c>
       <c r="F43" t="n">
-        <v>28.45583135375668</v>
+        <v>28.45583135375672</v>
       </c>
       <c r="G43" t="n">
-        <v>44.50350055203491</v>
+        <v>44.50350055203496</v>
       </c>
       <c r="H43" t="n">
-        <v>33.26036728359428</v>
+        <v>33.26036728359432</v>
       </c>
       <c r="I43" t="n">
-        <v>13.43347966158567</v>
+        <v>13.43347966158571</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>15.31829372738472</v>
+        <v>15.31829372738476</v>
       </c>
       <c r="S43" t="n">
-        <v>85.1160727748578</v>
+        <v>85.11607277485784</v>
       </c>
       <c r="T43" t="n">
-        <v>107.3770942559111</v>
+        <v>107.3770942559112</v>
       </c>
       <c r="U43" t="n">
-        <v>161.8059363983542</v>
+        <v>161.8059363983543</v>
       </c>
       <c r="V43" t="n">
-        <v>135.6279343264376</v>
+        <v>135.6279343264377</v>
       </c>
       <c r="W43" t="n">
-        <v>160.7948203970509</v>
+        <v>160.794820397051</v>
       </c>
       <c r="X43" t="n">
-        <v>106.439922392854</v>
+        <v>106.4399223928541</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.3147901489217</v>
+        <v>97.31479014892174</v>
       </c>
     </row>
     <row r="44">
@@ -3977,19 +3977,19 @@
         <v>267.603087052115</v>
       </c>
       <c r="C44" t="n">
-        <v>43.13143570488325</v>
+        <v>255.6144040097967</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>246.5957080543247</v>
       </c>
       <c r="E44" t="n">
-        <v>268.3378456242302</v>
+        <v>98.19596658016086</v>
       </c>
       <c r="F44" t="n">
         <v>287.5096617122074</v>
       </c>
       <c r="G44" t="n">
-        <v>288.9367973151669</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>201.8096172272699</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.32317888514837</v>
+        <v>51.32317888514836</v>
       </c>
       <c r="T44" t="n">
         <v>97.39974561656287</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>42.37278301643494</v>
+        <v>42.37278301643492</v>
       </c>
       <c r="S45" t="n">
         <v>146.2414144859818</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>15.31829372738472</v>
+        <v>15.31829372738471</v>
       </c>
       <c r="S46" t="n">
         <v>85.1160727748578</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="C2" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="D2" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="E2" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="F2" t="n">
-        <v>21.02234760148574</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="G2" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H2" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I2" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="J2" t="n">
+        <v>0.8007743026345088</v>
+      </c>
+      <c r="K2" t="n">
         <v>10.71035629773655</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>10.71035629773655</v>
+      </c>
+      <c r="M2" t="n">
+        <v>10.71035629773655</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10.71035629773655</v>
+      </c>
+      <c r="O2" t="n">
         <v>20.6199382928386</v>
       </c>
-      <c r="L2" t="n">
-        <v>30.52952028794065</v>
-      </c>
-      <c r="M2" t="n">
-        <v>30.52952028794065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>30.52952028794065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>30.52952028794065</v>
-      </c>
       <c r="P2" t="n">
-        <v>30.52952028794065</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="Q2" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R2" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S2" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T2" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U2" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="V2" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="W2" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="X2" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="Y2" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="C3" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D3" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E3" t="n">
-        <v>31.13313425091136</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F3" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G3" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H3" t="n">
         <v>0.8007743026345088</v>
@@ -4407,52 +4407,52 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="J3" t="n">
-        <v>10.3099691464193</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="K3" t="n">
-        <v>10.3099691464193</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="L3" t="n">
-        <v>10.3099691464193</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="M3" t="n">
-        <v>10.3099691464193</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="N3" t="n">
-        <v>20.21955114152135</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="O3" t="n">
         <v>30.12913313662339</v>
       </c>
       <c r="P3" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Q3" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R3" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S3" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T3" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U3" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="V3" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="W3" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="X3" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="Y3" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="C4" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D4" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E4" t="n">
-        <v>19.81714183287421</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F4" t="n">
-        <v>9.70635518344859</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G4" t="n">
-        <v>9.70635518344859</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H4" t="n">
-        <v>9.70635518344859</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I4" t="n">
         <v>0.8007743026345088</v>
@@ -4492,13 +4492,13 @@
         <v>10.71035629773655</v>
       </c>
       <c r="L4" t="n">
-        <v>20.6199382928386</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="M4" t="n">
-        <v>30.52952028794065</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="N4" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="O4" t="n">
         <v>40.03871513172544</v>
@@ -4507,31 +4507,31 @@
         <v>40.03871513172544</v>
       </c>
       <c r="Q4" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="R4" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S4" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T4" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="U4" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="V4" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="W4" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="X4" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="Y4" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
     </row>
     <row r="5">
@@ -4565,22 +4565,22 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="J5" t="n">
+        <v>0.8007743026345088</v>
+      </c>
+      <c r="K5" t="n">
         <v>10.71035629773655</v>
       </c>
-      <c r="K5" t="n">
-        <v>20.6199382928386</v>
-      </c>
       <c r="L5" t="n">
-        <v>20.6199382928386</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="M5" t="n">
-        <v>20.6199382928386</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="N5" t="n">
-        <v>20.6199382928386</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="O5" t="n">
-        <v>30.52952028794065</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P5" t="n">
         <v>40.03871513172544</v>
@@ -4589,25 +4589,25 @@
         <v>40.03871513172544</v>
       </c>
       <c r="R5" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="S5" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="T5" t="n">
-        <v>29.92792848229982</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="U5" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="V5" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="W5" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="X5" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="Y5" t="n">
         <v>21.02234760148574</v>
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.81714183287421</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="C6" t="n">
-        <v>19.81714183287421</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="D6" t="n">
-        <v>19.81714183287421</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="E6" t="n">
-        <v>19.81714183287421</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F6" t="n">
-        <v>19.81714183287421</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G6" t="n">
-        <v>19.81714183287421</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H6" t="n">
-        <v>9.70635518344859</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I6" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="J6" t="n">
+        <v>0.8007743026345088</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8007743026345088</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8007743026345088</v>
+      </c>
+      <c r="M6" t="n">
         <v>10.71035629773655</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
+        <v>10.71035629773655</v>
+      </c>
+      <c r="O6" t="n">
         <v>20.6199382928386</v>
       </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>30.12913313662339</v>
-      </c>
-      <c r="M6" t="n">
-        <v>30.12913313662339</v>
-      </c>
-      <c r="N6" t="n">
-        <v>30.12913313662339</v>
-      </c>
-      <c r="O6" t="n">
-        <v>30.12913313662339</v>
-      </c>
-      <c r="P6" t="n">
-        <v>40.03871513172544</v>
       </c>
       <c r="Q6" t="n">
         <v>40.03871513172544</v>
@@ -4674,22 +4674,22 @@
         <v>29.92792848229982</v>
       </c>
       <c r="T6" t="n">
-        <v>29.92792848229982</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="U6" t="n">
-        <v>29.92792848229982</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="V6" t="n">
-        <v>29.92792848229982</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="W6" t="n">
-        <v>29.92792848229982</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="X6" t="n">
-        <v>29.92792848229982</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="Y6" t="n">
-        <v>29.92792848229982</v>
+        <v>9.70635518344859</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="C7" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D7" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E7" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F7" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G7" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H7" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I7" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="J7" t="n">
         <v>0.8007743026345088</v>
@@ -4729,13 +4729,13 @@
         <v>10.71035629773655</v>
       </c>
       <c r="L7" t="n">
+        <v>10.71035629773655</v>
+      </c>
+      <c r="M7" t="n">
         <v>20.6199382928386</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>30.52952028794065</v>
-      </c>
-      <c r="N7" t="n">
-        <v>40.03871513172544</v>
       </c>
       <c r="O7" t="n">
         <v>40.03871513172544</v>
@@ -4747,7 +4747,7 @@
         <v>40.03871513172544</v>
       </c>
       <c r="R7" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S7" t="n">
         <v>29.92792848229982</v>
@@ -4762,13 +4762,13 @@
         <v>10.91156095206012</v>
       </c>
       <c r="W7" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="X7" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.14618325065221</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="C8" t="n">
-        <v>37.14618325065221</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="D8" t="n">
-        <v>25.08260074524424</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="E8" t="n">
-        <v>25.08260074524424</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="F8" t="n">
         <v>13.01901823983628</v>
@@ -4802,16 +4802,16 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="K8" t="n">
-        <v>12.77895294797866</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="L8" t="n">
-        <v>12.77895294797866</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="M8" t="n">
-        <v>12.77895294797866</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="N8" t="n">
         <v>24.60247016152901</v>
@@ -4829,25 +4829,25 @@
         <v>47.77178672141554</v>
       </c>
       <c r="S8" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T8" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="U8" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="V8" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="W8" t="n">
-        <v>37.14618325065221</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="X8" t="n">
-        <v>37.14618325065221</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="Y8" t="n">
-        <v>37.14618325065221</v>
+        <v>23.12980488926189</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9554357344283108</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="F9" t="n">
         <v>0.9554357344283108</v>
@@ -4887,16 +4887,16 @@
         <v>12.77895294797866</v>
       </c>
       <c r="L9" t="n">
-        <v>24.12475229431485</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="M9" t="n">
-        <v>35.94826950786519</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="N9" t="n">
-        <v>47.77178672141554</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="O9" t="n">
-        <v>47.77178672141554</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="P9" t="n">
         <v>47.77178672141554</v>
@@ -4908,25 +4908,25 @@
         <v>47.77178672141554</v>
       </c>
       <c r="S9" t="n">
+        <v>47.77178672141554</v>
+      </c>
+      <c r="T9" t="n">
         <v>35.70820421600757</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
+        <v>35.70820421600757</v>
+      </c>
+      <c r="V9" t="n">
+        <v>35.70820421600757</v>
+      </c>
+      <c r="W9" t="n">
+        <v>35.70820421600757</v>
+      </c>
+      <c r="X9" t="n">
         <v>23.64462171059961</v>
       </c>
-      <c r="U9" t="n">
-        <v>11.58103920519164</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.9554357344283108</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.9554357344283108</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.9554357344283108</v>
-      </c>
       <c r="Y9" t="n">
-        <v>0.9554357344283108</v>
+        <v>23.64462171059961</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="C10" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="D10" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="E10" t="n">
-        <v>37.14618325065221</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="F10" t="n">
-        <v>25.08260074524424</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="G10" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="H10" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I10" t="n">
         <v>0.9554357344283108</v>
@@ -4966,10 +4966,10 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="M10" t="n">
-        <v>12.3012350807645</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="N10" t="n">
         <v>24.12475229431485</v>
@@ -4981,31 +4981,31 @@
         <v>47.77178672141554</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="R10" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S10" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="T10" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="U10" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="V10" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="W10" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="X10" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
     </row>
     <row r="11">
@@ -5015,58 +5015,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1183.750567717139</v>
+        <v>998.1861543111104</v>
       </c>
       <c r="C11" t="n">
-        <v>906.0203029210051</v>
+        <v>720.4558895149761</v>
       </c>
       <c r="D11" t="n">
-        <v>637.399832019287</v>
+        <v>451.8354186132581</v>
       </c>
       <c r="E11" t="n">
-        <v>637.399832019287</v>
+        <v>412.5762855863524</v>
       </c>
       <c r="F11" t="n">
-        <v>637.399832019287</v>
+        <v>102.6285887675811</v>
       </c>
       <c r="G11" t="n">
-        <v>326.0105840864154</v>
+        <v>102.6285887675811</v>
       </c>
       <c r="H11" t="n">
         <v>102.6285887675811</v>
       </c>
       <c r="I11" t="n">
-        <v>53.72464675883714</v>
+        <v>53.72464675883712</v>
       </c>
       <c r="J11" t="n">
-        <v>168.2509634005562</v>
+        <v>168.250963400556</v>
       </c>
       <c r="K11" t="n">
-        <v>472.1294420386279</v>
+        <v>472.1294420386275</v>
       </c>
       <c r="L11" t="n">
-        <v>899.0875724614707</v>
+        <v>899.08757246147</v>
       </c>
       <c r="M11" t="n">
-        <v>1380.310416942196</v>
+        <v>1380.310416942195</v>
       </c>
       <c r="N11" t="n">
-        <v>1848.049121755377</v>
+        <v>1848.049121755376</v>
       </c>
       <c r="O11" t="n">
         <v>2237.478527880638</v>
       </c>
       <c r="P11" t="n">
-        <v>2537.690056379758</v>
+        <v>2537.690056379757</v>
       </c>
       <c r="Q11" t="n">
-        <v>2686.232337941857</v>
+        <v>2686.232337941856</v>
       </c>
       <c r="R11" t="n">
-        <v>2686.232337941857</v>
+        <v>2686.232337941856</v>
       </c>
       <c r="S11" t="n">
-        <v>2614.856845998903</v>
+        <v>2614.856845998902</v>
       </c>
       <c r="T11" t="n">
         <v>2496.93936745856</v>
@@ -5078,13 +5078,13 @@
         <v>2113.522644389963</v>
       </c>
       <c r="W11" t="n">
-        <v>1855.191208118623</v>
+        <v>1855.191208118622</v>
       </c>
       <c r="X11" t="n">
         <v>1577.364561511174</v>
       </c>
       <c r="Y11" t="n">
-        <v>1473.5906133641</v>
+        <v>1288.026199958071</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>209.9850324827626</v>
       </c>
       <c r="H12" t="n">
-        <v>112.6889960601582</v>
+        <v>112.6889960601583</v>
       </c>
       <c r="I12" t="n">
-        <v>53.72464675883714</v>
+        <v>53.72464675883712</v>
       </c>
       <c r="J12" t="n">
         <v>139.3080431704606</v>
       </c>
       <c r="K12" t="n">
-        <v>412.0903181565986</v>
+        <v>330.8822804076065</v>
       </c>
       <c r="L12" t="n">
-        <v>836.1232266587788</v>
+        <v>754.9151889097865</v>
       </c>
       <c r="M12" t="n">
-        <v>1389.086145439046</v>
+        <v>1307.878107690053</v>
       </c>
       <c r="N12" t="n">
-        <v>1535.580600302081</v>
+        <v>1888.871212545184</v>
       </c>
       <c r="O12" t="n">
-        <v>1991.567553461234</v>
+        <v>2344.858165704337</v>
       </c>
       <c r="P12" t="n">
         <v>2344.858165704337</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.808427351947</v>
+        <v>414.8084273519464</v>
       </c>
       <c r="C13" t="n">
-        <v>349.3959516846858</v>
+        <v>349.3959516846852</v>
       </c>
       <c r="D13" t="n">
-        <v>300.5275523835069</v>
+        <v>300.5275523835064</v>
       </c>
       <c r="E13" t="n">
-        <v>252.7220320158842</v>
+        <v>252.7220320158836</v>
       </c>
       <c r="F13" t="n">
-        <v>204.4448709127198</v>
+        <v>204.4448709127192</v>
       </c>
       <c r="G13" t="n">
-        <v>139.9579429426076</v>
+        <v>139.957942942607</v>
       </c>
       <c r="H13" t="n">
-        <v>86.82771524364759</v>
+        <v>86.82771524364699</v>
       </c>
       <c r="I13" t="n">
-        <v>53.72464675883714</v>
+        <v>53.72464675883712</v>
       </c>
       <c r="J13" t="n">
-        <v>112.8831489441029</v>
+        <v>112.8831489441027</v>
       </c>
       <c r="K13" t="n">
         <v>274.7305768552364</v>
       </c>
       <c r="L13" t="n">
-        <v>510.883656725043</v>
+        <v>510.8836567250429</v>
       </c>
       <c r="M13" t="n">
-        <v>766.2396585402715</v>
+        <v>766.2396585402714</v>
       </c>
       <c r="N13" t="n">
         <v>1021.186742277372</v>
       </c>
       <c r="O13" t="n">
-        <v>1253.549488066262</v>
+        <v>1253.549488066261</v>
       </c>
       <c r="P13" t="n">
         <v>1445.831902055686</v>
@@ -5221,7 +5221,7 @@
         <v>1529.012150174138</v>
       </c>
       <c r="R13" t="n">
-        <v>1494.005229097612</v>
+        <v>1494.005229097611</v>
       </c>
       <c r="S13" t="n">
         <v>1388.495500902426</v>
@@ -5230,19 +5230,19 @@
         <v>1260.499892423348</v>
       </c>
       <c r="U13" t="n">
-        <v>1077.52565551756</v>
+        <v>1077.525655517559</v>
       </c>
       <c r="V13" t="n">
-        <v>920.9938449470412</v>
+        <v>920.9938449470404</v>
       </c>
       <c r="W13" t="n">
-        <v>739.0409373354987</v>
+        <v>739.040937335498</v>
       </c>
       <c r="X13" t="n">
-        <v>611.9919671019329</v>
+        <v>611.9919671019322</v>
       </c>
       <c r="Y13" t="n">
-        <v>494.1603021652684</v>
+        <v>494.1603021652677</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1652.261715730241</v>
+        <v>1457.646283753867</v>
       </c>
       <c r="C14" t="n">
-        <v>1374.531450934107</v>
+        <v>1457.646283753867</v>
       </c>
       <c r="D14" t="n">
         <v>1189.025812852149</v>
@@ -5270,19 +5270,19 @@
         <v>277.1066420776715</v>
       </c>
       <c r="H14" t="n">
-        <v>53.72464675883714</v>
+        <v>53.72464675883712</v>
       </c>
       <c r="I14" t="n">
-        <v>53.72464675883714</v>
+        <v>53.72464675883712</v>
       </c>
       <c r="J14" t="n">
-        <v>168.250963400556</v>
+        <v>168.2509634005567</v>
       </c>
       <c r="K14" t="n">
-        <v>472.1294420386278</v>
+        <v>472.129442038628</v>
       </c>
       <c r="L14" t="n">
-        <v>899.0875724614706</v>
+        <v>899.0875724614705</v>
       </c>
       <c r="M14" t="n">
         <v>1380.310416942196</v>
@@ -5294,34 +5294,34 @@
         <v>2237.478527880638</v>
       </c>
       <c r="P14" t="n">
-        <v>2537.690056379758</v>
+        <v>2537.690056379757</v>
       </c>
       <c r="Q14" t="n">
-        <v>2686.232337941857</v>
+        <v>2686.232337941856</v>
       </c>
       <c r="R14" t="n">
-        <v>2686.232337941857</v>
+        <v>2686.232337941856</v>
       </c>
       <c r="S14" t="n">
-        <v>2614.856845998903</v>
+        <v>2614.856845998902</v>
       </c>
       <c r="T14" t="n">
-        <v>2614.856845998903</v>
+        <v>2496.93936745856</v>
       </c>
       <c r="U14" t="n">
-        <v>2464.215903163306</v>
+        <v>2346.298424622963</v>
       </c>
       <c r="V14" t="n">
-        <v>2231.440122930306</v>
+        <v>2113.522644389963</v>
       </c>
       <c r="W14" t="n">
-        <v>2231.440122930306</v>
+        <v>1855.191208118622</v>
       </c>
       <c r="X14" t="n">
-        <v>2231.440122930306</v>
+        <v>1855.191208118622</v>
       </c>
       <c r="Y14" t="n">
-        <v>1942.101761377202</v>
+        <v>1747.486329400828</v>
       </c>
     </row>
     <row r="15">
@@ -5349,22 +5349,22 @@
         <v>209.9850324827626</v>
       </c>
       <c r="H15" t="n">
-        <v>112.6889960601582</v>
+        <v>112.6889960601583</v>
       </c>
       <c r="I15" t="n">
-        <v>53.72464675883714</v>
+        <v>53.72464675883712</v>
       </c>
       <c r="J15" t="n">
-        <v>139.3080431704606</v>
+        <v>53.72464675883712</v>
       </c>
       <c r="K15" t="n">
-        <v>412.0903181565986</v>
+        <v>326.506921744975</v>
       </c>
       <c r="L15" t="n">
-        <v>836.1232266587788</v>
+        <v>750.5398302471551</v>
       </c>
       <c r="M15" t="n">
-        <v>954.5874954469499</v>
+        <v>954.5874954469505</v>
       </c>
       <c r="N15" t="n">
         <v>1535.580600302081</v>
@@ -5431,19 +5431,19 @@
         <v>86.82771524364702</v>
       </c>
       <c r="I16" t="n">
-        <v>53.72464675883714</v>
+        <v>53.72464675883712</v>
       </c>
       <c r="J16" t="n">
-        <v>112.883148944103</v>
+        <v>112.8831489441029</v>
       </c>
       <c r="K16" t="n">
-        <v>274.7305768552365</v>
+        <v>274.7305768552364</v>
       </c>
       <c r="L16" t="n">
-        <v>510.883656725043</v>
+        <v>510.8836567250429</v>
       </c>
       <c r="M16" t="n">
-        <v>766.2396585402716</v>
+        <v>766.2396585402715</v>
       </c>
       <c r="N16" t="n">
         <v>1021.186742277372</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1419.437808161906</v>
+        <v>1419.437808161905</v>
       </c>
       <c r="C17" t="n">
-        <v>1194.364000097121</v>
+        <v>1194.36400009712</v>
       </c>
       <c r="D17" t="n">
-        <v>978.3999859267525</v>
+        <v>978.3999859267512</v>
       </c>
       <c r="E17" t="n">
-        <v>740.4742166352671</v>
+        <v>740.474216635266</v>
       </c>
       <c r="F17" t="n">
-        <v>483.1829765478452</v>
+        <v>483.1829765478443</v>
       </c>
       <c r="G17" t="n">
-        <v>224.4501853463222</v>
+        <v>224.450185346322</v>
       </c>
       <c r="H17" t="n">
-        <v>53.72464675883714</v>
+        <v>53.72464675883712</v>
       </c>
       <c r="I17" t="n">
-        <v>53.72464675883714</v>
+        <v>53.72464675883712</v>
       </c>
       <c r="J17" t="n">
-        <v>168.2509634005563</v>
+        <v>168.250963400556</v>
       </c>
       <c r="K17" t="n">
-        <v>472.129442038628</v>
+        <v>472.1294420386276</v>
       </c>
       <c r="L17" t="n">
-        <v>899.0875724614707</v>
+        <v>899.0875724614702</v>
       </c>
       <c r="M17" t="n">
         <v>1380.310416942196</v>
       </c>
       <c r="N17" t="n">
-        <v>1848.049121755376</v>
+        <v>1848.049121755375</v>
       </c>
       <c r="O17" t="n">
-        <v>2237.478527880638</v>
+        <v>2237.478527880637</v>
       </c>
       <c r="P17" t="n">
-        <v>2537.690056379758</v>
+        <v>2537.690056379756</v>
       </c>
       <c r="Q17" t="n">
-        <v>2686.232337941857</v>
+        <v>2686.232337941855</v>
       </c>
       <c r="R17" t="n">
-        <v>2686.232337941857</v>
+        <v>2686.232337941856</v>
       </c>
       <c r="S17" t="n">
-        <v>2667.513302730253</v>
+        <v>2667.513302730252</v>
       </c>
       <c r="T17" t="n">
-        <v>2602.25228092126</v>
+        <v>2602.252280921259</v>
       </c>
       <c r="U17" t="n">
-        <v>2504.267794817012</v>
+        <v>2504.267794817011</v>
       </c>
       <c r="V17" t="n">
-        <v>2324.148471315361</v>
+        <v>2324.14847131536</v>
       </c>
       <c r="W17" t="n">
-        <v>2118.47349177537</v>
+        <v>2118.473491775369</v>
       </c>
       <c r="X17" t="n">
         <v>1893.303301899271</v>
       </c>
       <c r="Y17" t="n">
-        <v>1656.621397077517</v>
+        <v>1656.621397077516</v>
       </c>
     </row>
     <row r="18">
@@ -5586,22 +5586,22 @@
         <v>209.9850324827626</v>
       </c>
       <c r="H18" t="n">
-        <v>112.6889960601582</v>
+        <v>112.6889960601583</v>
       </c>
       <c r="I18" t="n">
-        <v>53.72464675883714</v>
+        <v>53.72464675883712</v>
       </c>
       <c r="J18" t="n">
         <v>139.3080431704606</v>
       </c>
       <c r="K18" t="n">
-        <v>412.0903181565986</v>
+        <v>412.0903181565984</v>
       </c>
       <c r="L18" t="n">
-        <v>836.1232266587788</v>
+        <v>836.1232266587785</v>
       </c>
       <c r="M18" t="n">
-        <v>954.5874954469499</v>
+        <v>1389.086145439046</v>
       </c>
       <c r="N18" t="n">
         <v>1535.580600302081</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>115.9491859174037</v>
+        <v>78.7849079011221</v>
       </c>
       <c r="C19" t="n">
-        <v>103.1931669814918</v>
+        <v>66.02888896521031</v>
       </c>
       <c r="D19" t="n">
-        <v>103.1931669814918</v>
+        <v>66.02888896521031</v>
       </c>
       <c r="E19" t="n">
-        <v>103.1931669814918</v>
+        <v>66.02888896521031</v>
       </c>
       <c r="F19" t="n">
-        <v>103.1931669814918</v>
+        <v>66.02888896521031</v>
       </c>
       <c r="G19" t="n">
-        <v>54.1984177264478</v>
+        <v>54.19841772644764</v>
       </c>
       <c r="H19" t="n">
-        <v>53.72464675883714</v>
+        <v>53.72464675883712</v>
       </c>
       <c r="I19" t="n">
-        <v>53.72464675883714</v>
+        <v>53.72464675883712</v>
       </c>
       <c r="J19" t="n">
-        <v>53.72464675883714</v>
+        <v>53.72464675883712</v>
       </c>
       <c r="K19" t="n">
-        <v>113.4422303269464</v>
+        <v>113.4422303269463</v>
       </c>
       <c r="L19" t="n">
-        <v>247.4654658537285</v>
+        <v>247.4654658537284</v>
       </c>
       <c r="M19" t="n">
-        <v>400.6916233259328</v>
+        <v>400.6916233259327</v>
       </c>
       <c r="N19" t="n">
-        <v>553.5088627200089</v>
+        <v>553.5088627200087</v>
       </c>
       <c r="O19" t="n">
-        <v>683.7417641658743</v>
+        <v>683.7417641658741</v>
       </c>
       <c r="P19" t="n">
-        <v>773.8943338122741</v>
+        <v>773.8943338122739</v>
       </c>
       <c r="Q19" t="n">
-        <v>773.8943338122741</v>
+        <v>773.8943338122739</v>
       </c>
       <c r="R19" t="n">
-        <v>773.8943338122741</v>
+        <v>773.8943338122739</v>
       </c>
       <c r="S19" t="n">
-        <v>721.0410623484377</v>
+        <v>683.8767843321551</v>
       </c>
       <c r="T19" t="n">
-        <v>645.701910600709</v>
+        <v>608.5376325844265</v>
       </c>
       <c r="U19" t="n">
-        <v>515.3841304262701</v>
+        <v>478.2198524099877</v>
       </c>
       <c r="V19" t="n">
-        <v>411.5087765871004</v>
+        <v>374.3444985708182</v>
       </c>
       <c r="W19" t="n">
-        <v>282.2123257069073</v>
+        <v>245.0480476906253</v>
       </c>
       <c r="X19" t="n">
-        <v>207.8198122046909</v>
+        <v>170.655534188409</v>
       </c>
       <c r="Y19" t="n">
-        <v>142.6446039993758</v>
+        <v>105.480325983094</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5732,22 @@
         <v>1194.36400009712</v>
       </c>
       <c r="D20" t="n">
-        <v>978.3999859267512</v>
+        <v>978.3999859267519</v>
       </c>
       <c r="E20" t="n">
-        <v>740.474216635266</v>
+        <v>740.4742166352667</v>
       </c>
       <c r="F20" t="n">
-        <v>483.1829765478443</v>
+        <v>483.1829765478449</v>
       </c>
       <c r="G20" t="n">
         <v>224.450185346322</v>
       </c>
       <c r="H20" t="n">
-        <v>53.72464675883711</v>
+        <v>53.72464675883712</v>
       </c>
       <c r="I20" t="n">
-        <v>53.72464675883711</v>
+        <v>53.72464675883712</v>
       </c>
       <c r="J20" t="n">
         <v>168.250963400556</v>
@@ -5759,31 +5759,31 @@
         <v>899.0875724614702</v>
       </c>
       <c r="M20" t="n">
-        <v>1380.310416942195</v>
+        <v>1380.310416942196</v>
       </c>
       <c r="N20" t="n">
-        <v>1848.049121755375</v>
+        <v>1848.049121755376</v>
       </c>
       <c r="O20" t="n">
-        <v>2237.478527880637</v>
+        <v>2237.478527880638</v>
       </c>
       <c r="P20" t="n">
-        <v>2537.690056379756</v>
+        <v>2537.690056379757</v>
       </c>
       <c r="Q20" t="n">
-        <v>2686.232337941855</v>
+        <v>2686.232337941856</v>
       </c>
       <c r="R20" t="n">
-        <v>2686.232337941855</v>
+        <v>2686.232337941856</v>
       </c>
       <c r="S20" t="n">
-        <v>2667.513302730251</v>
+        <v>2667.513302730252</v>
       </c>
       <c r="T20" t="n">
-        <v>2602.252280921258</v>
+        <v>2602.252280921259</v>
       </c>
       <c r="U20" t="n">
-        <v>2504.26779481701</v>
+        <v>2504.267794817011</v>
       </c>
       <c r="V20" t="n">
         <v>2324.14847131536</v>
@@ -5823,10 +5823,10 @@
         <v>209.9850324827626</v>
       </c>
       <c r="H21" t="n">
-        <v>112.6889960601582</v>
+        <v>112.6889960601583</v>
       </c>
       <c r="I21" t="n">
-        <v>53.72464675883711</v>
+        <v>53.72464675883712</v>
       </c>
       <c r="J21" t="n">
         <v>139.3080431704606</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>115.9491859174046</v>
+        <v>78.7849079011221</v>
       </c>
       <c r="C22" t="n">
-        <v>103.1931669814928</v>
+        <v>66.02888896521031</v>
       </c>
       <c r="D22" t="n">
-        <v>103.1931669814928</v>
+        <v>66.02888896521031</v>
       </c>
       <c r="E22" t="n">
-        <v>103.1931669814928</v>
+        <v>66.02888896521031</v>
       </c>
       <c r="F22" t="n">
         <v>66.02888896521031</v>
       </c>
       <c r="G22" t="n">
-        <v>54.19841772644763</v>
+        <v>54.19841772644764</v>
       </c>
       <c r="H22" t="n">
-        <v>53.72464675883711</v>
+        <v>53.72464675883712</v>
       </c>
       <c r="I22" t="n">
-        <v>53.72464675883711</v>
+        <v>53.72464675883712</v>
       </c>
       <c r="J22" t="n">
-        <v>53.72464675883711</v>
+        <v>53.72464675883712</v>
       </c>
       <c r="K22" t="n">
         <v>113.4422303269463</v>
@@ -5935,25 +5935,25 @@
         <v>773.8943338122739</v>
       </c>
       <c r="S22" t="n">
-        <v>721.0410623484375</v>
+        <v>683.8767843321551</v>
       </c>
       <c r="T22" t="n">
-        <v>645.701910600709</v>
+        <v>608.5376325844265</v>
       </c>
       <c r="U22" t="n">
-        <v>515.3841304262702</v>
+        <v>478.2198524099877</v>
       </c>
       <c r="V22" t="n">
-        <v>411.5087765871007</v>
+        <v>374.3444985708182</v>
       </c>
       <c r="W22" t="n">
-        <v>282.2123257069078</v>
+        <v>245.0480476906253</v>
       </c>
       <c r="X22" t="n">
-        <v>207.8198122046915</v>
+        <v>170.655534188409</v>
       </c>
       <c r="Y22" t="n">
-        <v>142.6446039993765</v>
+        <v>105.480325983094</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1194.36400009712</v>
       </c>
       <c r="D23" t="n">
-        <v>978.399985926751</v>
+        <v>978.3999859267515</v>
       </c>
       <c r="E23" t="n">
-        <v>740.4742166352657</v>
+        <v>740.4742166352662</v>
       </c>
       <c r="F23" t="n">
-        <v>483.1829765478442</v>
+        <v>483.1829765478446</v>
       </c>
       <c r="G23" t="n">
         <v>224.450185346322</v>
@@ -5993,10 +5993,10 @@
         <v>472.1294420386276</v>
       </c>
       <c r="L23" t="n">
-        <v>899.0875724614701</v>
+        <v>899.0875724614702</v>
       </c>
       <c r="M23" t="n">
-        <v>1380.310416942195</v>
+        <v>1380.310416942196</v>
       </c>
       <c r="N23" t="n">
         <v>1848.049121755375</v>
@@ -6020,7 +6020,7 @@
         <v>2602.252280921258</v>
       </c>
       <c r="U23" t="n">
-        <v>2504.26779481701</v>
+        <v>2504.267794817011</v>
       </c>
       <c r="V23" t="n">
         <v>2324.14847131536</v>
@@ -6075,7 +6075,7 @@
         <v>836.1232266587785</v>
       </c>
       <c r="M24" t="n">
-        <v>954.5874954469505</v>
+        <v>1389.086145439046</v>
       </c>
       <c r="N24" t="n">
         <v>1535.580600302081</v>
@@ -6175,13 +6175,13 @@
         <v>721.0410623484375</v>
       </c>
       <c r="T25" t="n">
-        <v>608.5376325844265</v>
+        <v>645.701910600709</v>
       </c>
       <c r="U25" t="n">
-        <v>478.2198524099877</v>
+        <v>515.3841304262702</v>
       </c>
       <c r="V25" t="n">
-        <v>374.3444985708182</v>
+        <v>411.5087765871007</v>
       </c>
       <c r="W25" t="n">
         <v>245.0480476906253</v>
@@ -6212,10 +6212,10 @@
         <v>963.3902703941326</v>
       </c>
       <c r="F26" t="n">
-        <v>653.4425735753613</v>
+        <v>653.4425735753609</v>
       </c>
       <c r="G26" t="n">
-        <v>342.0533256424895</v>
+        <v>342.0533256424892</v>
       </c>
       <c r="H26" t="n">
         <v>118.6713303236553</v>
@@ -6233,7 +6233,7 @@
         <v>1145.804769395104</v>
       </c>
       <c r="M26" t="n">
-        <v>1729.157458218854</v>
+        <v>1729.157458218853</v>
       </c>
       <c r="N26" t="n">
         <v>2299.026007375058</v>
@@ -6257,10 +6257,10 @@
         <v>3299.07644526227</v>
       </c>
       <c r="U26" t="n">
-        <v>3148.435502426673</v>
+        <v>3148.435502426672</v>
       </c>
       <c r="V26" t="n">
-        <v>2915.659722193673</v>
+        <v>2915.659722193672</v>
       </c>
       <c r="W26" t="n">
         <v>2657.328285922332</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>430.8511689080207</v>
+        <v>430.8511689080206</v>
       </c>
       <c r="C28" t="n">
-        <v>365.4386932407594</v>
+        <v>365.4386932407593</v>
       </c>
       <c r="D28" t="n">
         <v>316.5702939395806</v>
       </c>
       <c r="E28" t="n">
-        <v>268.7647735719579</v>
+        <v>268.7647735719578</v>
       </c>
       <c r="F28" t="n">
         <v>220.4876124687934</v>
@@ -6376,13 +6376,13 @@
         <v>156.0006844986813</v>
       </c>
       <c r="H28" t="n">
-        <v>102.8704567997212</v>
+        <v>102.8704567997213</v>
       </c>
       <c r="I28" t="n">
         <v>69.76738831491133</v>
       </c>
       <c r="J28" t="n">
-        <v>128.9258905001771</v>
+        <v>128.925890500177</v>
       </c>
       <c r="K28" t="n">
         <v>290.7733184113106</v>
@@ -6397,7 +6397,7 @@
         <v>1037.229483833446</v>
       </c>
       <c r="O28" t="n">
-        <v>1269.592229622336</v>
+        <v>1269.592229622335</v>
       </c>
       <c r="P28" t="n">
         <v>1461.87464361176</v>
@@ -6418,16 +6418,16 @@
         <v>1093.568397073634</v>
       </c>
       <c r="V28" t="n">
-        <v>937.0365865031149</v>
+        <v>937.0365865031147</v>
       </c>
       <c r="W28" t="n">
-        <v>755.0836788915724</v>
+        <v>755.0836788915723</v>
       </c>
       <c r="X28" t="n">
-        <v>628.0347086580066</v>
+        <v>628.0347086580065</v>
       </c>
       <c r="Y28" t="n">
-        <v>510.2030437213421</v>
+        <v>510.2030437213419</v>
       </c>
     </row>
     <row r="29">
@@ -6437,61 +6437,61 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1800.32323211482</v>
+        <v>1800.323232114819</v>
       </c>
       <c r="C29" t="n">
-        <v>1522.592967318686</v>
+        <v>1522.592967318685</v>
       </c>
       <c r="D29" t="n">
-        <v>1253.972496416968</v>
+        <v>1253.972496416967</v>
       </c>
       <c r="E29" t="n">
-        <v>963.3902703941333</v>
+        <v>963.390270394133</v>
       </c>
       <c r="F29" t="n">
         <v>653.4425735753621</v>
       </c>
       <c r="G29" t="n">
-        <v>342.0533256424904</v>
+        <v>342.0533256424903</v>
       </c>
       <c r="H29" t="n">
         <v>118.6713303236553</v>
       </c>
       <c r="I29" t="n">
-        <v>69.76738831491134</v>
+        <v>69.76738831491133</v>
       </c>
       <c r="J29" t="n">
         <v>286.4235492996546</v>
       </c>
       <c r="K29" t="n">
-        <v>692.4318722807506</v>
+        <v>692.4318722807507</v>
       </c>
       <c r="L29" t="n">
         <v>1221.519847046618</v>
       </c>
       <c r="M29" t="n">
-        <v>1804.872535870367</v>
+        <v>1729.157458218853</v>
       </c>
       <c r="N29" t="n">
-        <v>2374.741085026571</v>
+        <v>2299.026007375058</v>
       </c>
       <c r="O29" t="n">
-        <v>2866.300335494857</v>
+        <v>2790.585257843344</v>
       </c>
       <c r="P29" t="n">
-        <v>3268.641708337001</v>
+        <v>3192.926630685487</v>
       </c>
       <c r="Q29" t="n">
-        <v>3443.598756590612</v>
+        <v>3443.598756590611</v>
       </c>
       <c r="R29" t="n">
-        <v>3488.369415745567</v>
+        <v>3488.369415745566</v>
       </c>
       <c r="S29" t="n">
         <v>3416.993923802613</v>
       </c>
       <c r="T29" t="n">
-        <v>3299.076445262271</v>
+        <v>3299.07644526227</v>
       </c>
       <c r="U29" t="n">
         <v>3148.435502426673</v>
@@ -6500,13 +6500,13 @@
         <v>2915.659722193673</v>
       </c>
       <c r="W29" t="n">
-        <v>2657.328285922333</v>
+        <v>2657.328285922332</v>
       </c>
       <c r="X29" t="n">
         <v>2379.501639314884</v>
       </c>
       <c r="Y29" t="n">
-        <v>2090.163277761781</v>
+        <v>2090.16327776178</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>128.7317376162325</v>
       </c>
       <c r="I30" t="n">
-        <v>69.76738831491134</v>
+        <v>69.76738831491133</v>
       </c>
       <c r="J30" t="n">
         <v>155.3507847265348</v>
@@ -6546,10 +6546,10 @@
         <v>428.1330597126727</v>
       </c>
       <c r="L30" t="n">
-        <v>852.1659682148527</v>
+        <v>852.1659682148529</v>
       </c>
       <c r="M30" t="n">
-        <v>970.6302370030244</v>
+        <v>1405.12888699512</v>
       </c>
       <c r="N30" t="n">
         <v>1551.623341858155</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>430.8511689080207</v>
+        <v>430.8511689080208</v>
       </c>
       <c r="C31" t="n">
-        <v>365.4386932407594</v>
+        <v>365.4386932407596</v>
       </c>
       <c r="D31" t="n">
-        <v>316.5702939395806</v>
+        <v>316.5702939395807</v>
       </c>
       <c r="E31" t="n">
-        <v>268.7647735719578</v>
+        <v>268.764773571958</v>
       </c>
       <c r="F31" t="n">
-        <v>220.4876124687934</v>
+        <v>220.4876124687935</v>
       </c>
       <c r="G31" t="n">
         <v>156.0006844986813</v>
       </c>
       <c r="H31" t="n">
-        <v>102.8704567997212</v>
+        <v>102.8704567997213</v>
       </c>
       <c r="I31" t="n">
-        <v>69.76738831491134</v>
+        <v>69.76738831491133</v>
       </c>
       <c r="J31" t="n">
         <v>128.9258905001771</v>
@@ -6628,7 +6628,7 @@
         <v>526.926398281117</v>
       </c>
       <c r="M31" t="n">
-        <v>782.2824000963456</v>
+        <v>782.2824000963458</v>
       </c>
       <c r="N31" t="n">
         <v>1037.229483833446</v>
@@ -6655,16 +6655,16 @@
         <v>1093.568397073634</v>
       </c>
       <c r="V31" t="n">
-        <v>937.0365865031147</v>
+        <v>937.0365865031151</v>
       </c>
       <c r="W31" t="n">
-        <v>755.0836788915723</v>
+        <v>755.0836788915726</v>
       </c>
       <c r="X31" t="n">
-        <v>628.0347086580065</v>
+        <v>628.0347086580068</v>
       </c>
       <c r="Y31" t="n">
-        <v>510.2030437213421</v>
+        <v>510.2030437213423</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1796.631979276008</v>
+        <v>1796.631979276007</v>
       </c>
       <c r="C32" t="n">
-        <v>1519.406941823734</v>
+        <v>1519.406941823733</v>
       </c>
       <c r="D32" t="n">
         <v>1251.291698265875</v>
       </c>
       <c r="E32" t="n">
-        <v>961.2146995869005</v>
+        <v>961.2146995868998</v>
       </c>
       <c r="F32" t="n">
-        <v>651.7722301119888</v>
+        <v>651.7722301119879</v>
       </c>
       <c r="G32" t="n">
-        <v>340.8882095229762</v>
+        <v>340.8882095229765</v>
       </c>
       <c r="H32" t="n">
         <v>118.0114415480017</v>
       </c>
       <c r="I32" t="n">
-        <v>69.61272688311755</v>
+        <v>69.61272688311752</v>
       </c>
       <c r="J32" t="n">
-        <v>199.0140135007156</v>
+        <v>286.7640611875778</v>
       </c>
       <c r="K32" t="n">
-        <v>605.5175098015285</v>
+        <v>693.2675574883908</v>
       </c>
       <c r="L32" t="n">
-        <v>1135.100657887112</v>
+        <v>1222.850705573975</v>
       </c>
       <c r="M32" t="n">
-        <v>1718.948520030579</v>
+        <v>1718.948520030578</v>
       </c>
       <c r="N32" t="n">
-        <v>2289.3122425065</v>
+        <v>2289.312242506499</v>
       </c>
       <c r="O32" t="n">
-        <v>2781.366666294503</v>
+        <v>2781.366666294502</v>
       </c>
       <c r="P32" t="n">
-        <v>3184.203212456364</v>
+        <v>3184.203212456363</v>
       </c>
       <c r="Q32" t="n">
-        <v>3435.370511681204</v>
+        <v>3435.370511681203</v>
       </c>
       <c r="R32" t="n">
-        <v>3480.636344155877</v>
+        <v>3480.636344155876</v>
       </c>
       <c r="S32" t="n">
-        <v>3409.766079556783</v>
+        <v>3409.766079556782</v>
       </c>
       <c r="T32" t="n">
-        <v>3292.3538283603</v>
+        <v>3292.353828360299</v>
       </c>
       <c r="U32" t="n">
-        <v>3142.218112868563</v>
+        <v>3142.218112868562</v>
       </c>
       <c r="V32" t="n">
-        <v>2909.947559979422</v>
+        <v>2909.947559979421</v>
       </c>
       <c r="W32" t="n">
-        <v>2652.121351051941</v>
+        <v>2652.12135105194</v>
       </c>
       <c r="X32" t="n">
-        <v>2374.799931788353</v>
+        <v>2374.799931788352</v>
       </c>
       <c r="Y32" t="n">
-        <v>2085.966797579109</v>
+        <v>2085.966797579108</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>636.049880524788</v>
       </c>
       <c r="E33" t="n">
-        <v>489.0218705816593</v>
+        <v>489.0218705816592</v>
       </c>
       <c r="F33" t="n">
         <v>354.3280725315336</v>
@@ -6774,13 +6774,13 @@
         <v>128.5770761844387</v>
       </c>
       <c r="I33" t="n">
-        <v>69.61272688311755</v>
+        <v>69.61272688311752</v>
       </c>
       <c r="J33" t="n">
-        <v>69.61272688311755</v>
+        <v>69.61272688311752</v>
       </c>
       <c r="K33" t="n">
-        <v>342.3950018692554</v>
+        <v>342.3950018692553</v>
       </c>
       <c r="L33" t="n">
         <v>766.4279103714355</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>427.1599160692085</v>
+        <v>427.1599160692082</v>
       </c>
       <c r="C34" t="n">
-        <v>362.252667745807</v>
+        <v>362.2526677458067</v>
       </c>
       <c r="D34" t="n">
-        <v>313.8894957884879</v>
+        <v>313.8894957884877</v>
       </c>
       <c r="E34" t="n">
-        <v>266.589202764725</v>
+        <v>266.5892027647248</v>
       </c>
       <c r="F34" t="n">
-        <v>218.8172690054203</v>
+        <v>218.8172690054201</v>
       </c>
       <c r="G34" t="n">
-        <v>154.8355683791679</v>
+        <v>154.8355683791678</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2105680240677</v>
+        <v>102.2105680240676</v>
       </c>
       <c r="I34" t="n">
-        <v>69.61272688311755</v>
+        <v>69.61272688311752</v>
       </c>
       <c r="J34" t="n">
         <v>129.2664023881003</v>
       </c>
       <c r="K34" t="n">
-        <v>279.5639795594585</v>
+        <v>291.6090036189509</v>
       </c>
       <c r="L34" t="n">
-        <v>516.2122327489819</v>
+        <v>528.2572568084744</v>
       </c>
       <c r="M34" t="n">
-        <v>772.0634078839275</v>
+        <v>784.10843194342</v>
       </c>
       <c r="N34" t="n">
-        <v>1027.505664940745</v>
+        <v>1039.550689000238</v>
       </c>
       <c r="O34" t="n">
-        <v>1260.363584049352</v>
+        <v>1260.363584049351</v>
       </c>
       <c r="P34" t="n">
-        <v>1453.141171358493</v>
+        <v>1453.141171358492</v>
       </c>
       <c r="Q34" t="n">
-        <v>1536.816592796662</v>
+        <v>1536.816592796661</v>
       </c>
       <c r="R34" t="n">
         <v>1502.314899063995</v>
@@ -6889,19 +6889,19 @@
         <v>1269.820017077451</v>
       </c>
       <c r="U34" t="n">
-        <v>1087.351007515523</v>
+        <v>1087.351007515522</v>
       </c>
       <c r="V34" t="n">
-        <v>931.3244242888636</v>
+        <v>931.3244242888632</v>
       </c>
       <c r="W34" t="n">
-        <v>749.8767440211809</v>
+        <v>749.8767440211805</v>
       </c>
       <c r="X34" t="n">
-        <v>623.3330011314748</v>
+        <v>623.3330011314745</v>
       </c>
       <c r="Y34" t="n">
-        <v>506.0065635386702</v>
+        <v>506.0065635386698</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1419.437808161905</v>
+        <v>1419.437808161906</v>
       </c>
       <c r="C35" t="n">
-        <v>1194.36400009712</v>
+        <v>1194.364000097121</v>
       </c>
       <c r="D35" t="n">
-        <v>978.3999859267517</v>
+        <v>978.3999859267522</v>
       </c>
       <c r="E35" t="n">
-        <v>740.4742166352664</v>
+        <v>740.4742166352667</v>
       </c>
       <c r="F35" t="n">
-        <v>483.1829765478446</v>
+        <v>483.1829765478451</v>
       </c>
       <c r="G35" t="n">
-        <v>224.450185346322</v>
+        <v>224.4501853463221</v>
       </c>
       <c r="H35" t="n">
-        <v>53.72464675883711</v>
+        <v>53.72464675883715</v>
       </c>
       <c r="I35" t="n">
-        <v>53.72464675883711</v>
+        <v>53.72464675883715</v>
       </c>
       <c r="J35" t="n">
-        <v>168.250963400556</v>
+        <v>168.2509634005561</v>
       </c>
       <c r="K35" t="n">
         <v>472.1294420386276</v>
       </c>
       <c r="L35" t="n">
-        <v>899.0875724614696</v>
+        <v>899.0875724614702</v>
       </c>
       <c r="M35" t="n">
-        <v>1380.310416942195</v>
+        <v>1380.310416942196</v>
       </c>
       <c r="N35" t="n">
         <v>1848.049121755375</v>
@@ -6956,31 +6956,31 @@
         <v>2537.690056379756</v>
       </c>
       <c r="Q35" t="n">
-        <v>2686.232337941855</v>
+        <v>2686.232337941857</v>
       </c>
       <c r="R35" t="n">
-        <v>2686.232337941855</v>
+        <v>2686.232337941857</v>
       </c>
       <c r="S35" t="n">
-        <v>2667.513302730251</v>
+        <v>2667.513302730253</v>
       </c>
       <c r="T35" t="n">
-        <v>2602.252280921258</v>
+        <v>2602.25228092126</v>
       </c>
       <c r="U35" t="n">
-        <v>2504.267794817011</v>
+        <v>2504.267794817012</v>
       </c>
       <c r="V35" t="n">
-        <v>2324.14847131536</v>
+        <v>2324.148471315361</v>
       </c>
       <c r="W35" t="n">
-        <v>2118.473491775369</v>
+        <v>2118.47349177537</v>
       </c>
       <c r="X35" t="n">
-        <v>1893.30330189927</v>
+        <v>1893.303301899271</v>
       </c>
       <c r="Y35" t="n">
-        <v>1656.621397077516</v>
+        <v>1656.621397077517</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>209.9850324827626</v>
       </c>
       <c r="H36" t="n">
-        <v>112.6889960601582</v>
+        <v>112.6889960601583</v>
       </c>
       <c r="I36" t="n">
-        <v>53.72464675883711</v>
+        <v>53.72464675883715</v>
       </c>
       <c r="J36" t="n">
         <v>139.3080431704606</v>
       </c>
       <c r="K36" t="n">
-        <v>401.6245766666834</v>
+        <v>412.0903181565984</v>
       </c>
       <c r="L36" t="n">
-        <v>401.6245766666834</v>
+        <v>836.1232266587785</v>
       </c>
       <c r="M36" t="n">
-        <v>954.5874954469505</v>
+        <v>1389.086145439046</v>
       </c>
       <c r="N36" t="n">
-        <v>1535.580600302081</v>
+        <v>1970.079250294176</v>
       </c>
       <c r="O36" t="n">
-        <v>1991.567553461234</v>
+        <v>2426.06620345333</v>
       </c>
       <c r="P36" t="n">
-        <v>2344.858165704337</v>
+        <v>2536.852091969407</v>
       </c>
       <c r="Q36" t="n">
         <v>2536.852091969407</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>115.9491859174046</v>
+        <v>78.78490790112247</v>
       </c>
       <c r="C37" t="n">
-        <v>103.1931669814928</v>
+        <v>66.02888896521057</v>
       </c>
       <c r="D37" t="n">
-        <v>66.02888896521031</v>
+        <v>66.02888896521057</v>
       </c>
       <c r="E37" t="n">
-        <v>66.02888896521031</v>
+        <v>66.02888896521057</v>
       </c>
       <c r="F37" t="n">
-        <v>66.02888896521031</v>
+        <v>66.02888896521057</v>
       </c>
       <c r="G37" t="n">
-        <v>54.19841772644763</v>
+        <v>54.19841772644778</v>
       </c>
       <c r="H37" t="n">
-        <v>53.72464675883711</v>
+        <v>53.72464675883715</v>
       </c>
       <c r="I37" t="n">
-        <v>53.72464675883711</v>
+        <v>53.72464675883715</v>
       </c>
       <c r="J37" t="n">
-        <v>53.72464675883711</v>
+        <v>53.72464675883715</v>
       </c>
       <c r="K37" t="n">
         <v>113.4422303269463</v>
@@ -7105,40 +7105,40 @@
         <v>400.6916233259327</v>
       </c>
       <c r="N37" t="n">
-        <v>553.5088627200087</v>
+        <v>553.5088627200088</v>
       </c>
       <c r="O37" t="n">
-        <v>683.7417641658741</v>
+        <v>683.7417641658742</v>
       </c>
       <c r="P37" t="n">
-        <v>773.8943338122739</v>
+        <v>773.894333812274</v>
       </c>
       <c r="Q37" t="n">
-        <v>773.8943338122739</v>
+        <v>773.894333812274</v>
       </c>
       <c r="R37" t="n">
-        <v>773.8943338122739</v>
+        <v>773.894333812274</v>
       </c>
       <c r="S37" t="n">
         <v>721.0410623484375</v>
       </c>
       <c r="T37" t="n">
-        <v>645.701910600709</v>
+        <v>645.7019106007089</v>
       </c>
       <c r="U37" t="n">
-        <v>515.3841304262702</v>
+        <v>515.38413042627</v>
       </c>
       <c r="V37" t="n">
-        <v>411.5087765871007</v>
+        <v>411.5087765871004</v>
       </c>
       <c r="W37" t="n">
-        <v>282.2123257069078</v>
+        <v>282.2123257069073</v>
       </c>
       <c r="X37" t="n">
-        <v>207.8198122046915</v>
+        <v>207.8198122046909</v>
       </c>
       <c r="Y37" t="n">
-        <v>142.6446039993765</v>
+        <v>105.4803259830945</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1419.437808161905</v>
+        <v>1419.437808161906</v>
       </c>
       <c r="C38" t="n">
         <v>1194.364000097121</v>
       </c>
       <c r="D38" t="n">
-        <v>978.3999859267519</v>
+        <v>978.3999859267523</v>
       </c>
       <c r="E38" t="n">
-        <v>740.4742166352667</v>
+        <v>740.4742166352669</v>
       </c>
       <c r="F38" t="n">
-        <v>483.1829765478451</v>
+        <v>483.1829765478449</v>
       </c>
       <c r="G38" t="n">
-        <v>224.450185346322</v>
+        <v>224.4501853463222</v>
       </c>
       <c r="H38" t="n">
-        <v>53.72464675883711</v>
+        <v>53.72464675883715</v>
       </c>
       <c r="I38" t="n">
-        <v>53.72464675883643</v>
+        <v>53.72464675883715</v>
       </c>
       <c r="J38" t="n">
-        <v>168.2509634005553</v>
+        <v>168.2509634005561</v>
       </c>
       <c r="K38" t="n">
-        <v>472.129442038627</v>
+        <v>472.1294420386277</v>
       </c>
       <c r="L38" t="n">
-        <v>899.0875724614696</v>
+        <v>899.0875724614702</v>
       </c>
       <c r="M38" t="n">
-        <v>1380.310416942195</v>
+        <v>1380.310416942196</v>
       </c>
       <c r="N38" t="n">
         <v>1848.049121755375</v>
@@ -7196,22 +7196,22 @@
         <v>2686.232337941855</v>
       </c>
       <c r="R38" t="n">
-        <v>2686.232337941855</v>
+        <v>2686.232337941858</v>
       </c>
       <c r="S38" t="n">
-        <v>2667.513302730252</v>
+        <v>2667.513302730253</v>
       </c>
       <c r="T38" t="n">
-        <v>2602.252280921259</v>
+        <v>2602.25228092126</v>
       </c>
       <c r="U38" t="n">
-        <v>2504.267794817011</v>
+        <v>2504.267794817012</v>
       </c>
       <c r="V38" t="n">
-        <v>2324.14847131536</v>
+        <v>2324.148471315361</v>
       </c>
       <c r="W38" t="n">
-        <v>2118.473491775369</v>
+        <v>2118.47349177537</v>
       </c>
       <c r="X38" t="n">
         <v>1893.303301899271</v>
@@ -7245,16 +7245,16 @@
         <v>209.9850324827626</v>
       </c>
       <c r="H39" t="n">
-        <v>112.6889960601582</v>
+        <v>112.6889960601583</v>
       </c>
       <c r="I39" t="n">
-        <v>53.72464675883711</v>
+        <v>53.72464675883715</v>
       </c>
       <c r="J39" t="n">
         <v>139.3080431704606</v>
       </c>
       <c r="K39" t="n">
-        <v>412.0903181565984</v>
+        <v>412.0903181565985</v>
       </c>
       <c r="L39" t="n">
         <v>836.1232266587785</v>
@@ -7263,7 +7263,7 @@
         <v>1389.086145439046</v>
       </c>
       <c r="N39" t="n">
-        <v>1535.580600302081</v>
+        <v>1970.079250294176</v>
       </c>
       <c r="O39" t="n">
         <v>1991.567553461234</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>115.9491859174046</v>
+        <v>78.78490790112255</v>
       </c>
       <c r="C40" t="n">
-        <v>103.1931669814928</v>
+        <v>66.02888896521063</v>
       </c>
       <c r="D40" t="n">
-        <v>103.1931669814928</v>
+        <v>66.02888896521063</v>
       </c>
       <c r="E40" t="n">
-        <v>103.1931669814928</v>
+        <v>66.02888896521063</v>
       </c>
       <c r="F40" t="n">
-        <v>66.02888896521031</v>
+        <v>66.02888896521063</v>
       </c>
       <c r="G40" t="n">
-        <v>54.19841772644763</v>
+        <v>54.19841772644781</v>
       </c>
       <c r="H40" t="n">
-        <v>53.72464675883711</v>
+        <v>53.72464675883715</v>
       </c>
       <c r="I40" t="n">
-        <v>53.72464675883711</v>
+        <v>53.72464675883715</v>
       </c>
       <c r="J40" t="n">
-        <v>53.72464675883711</v>
+        <v>53.72464675883715</v>
       </c>
       <c r="K40" t="n">
         <v>113.4422303269463</v>
@@ -7342,40 +7342,40 @@
         <v>400.6916233259327</v>
       </c>
       <c r="N40" t="n">
-        <v>553.5088627200087</v>
+        <v>553.5088627200088</v>
       </c>
       <c r="O40" t="n">
-        <v>683.7417641658741</v>
+        <v>683.7417641658742</v>
       </c>
       <c r="P40" t="n">
-        <v>773.8943338122739</v>
+        <v>773.894333812274</v>
       </c>
       <c r="Q40" t="n">
-        <v>773.8943338122739</v>
+        <v>754.5599840269742</v>
       </c>
       <c r="R40" t="n">
-        <v>773.8943338122739</v>
+        <v>754.5599840269742</v>
       </c>
       <c r="S40" t="n">
-        <v>721.0410623484375</v>
+        <v>701.7067125631378</v>
       </c>
       <c r="T40" t="n">
-        <v>645.701910600709</v>
+        <v>608.5376325844278</v>
       </c>
       <c r="U40" t="n">
-        <v>515.3841304262702</v>
+        <v>478.2198524099889</v>
       </c>
       <c r="V40" t="n">
-        <v>411.5087765871007</v>
+        <v>374.3444985708193</v>
       </c>
       <c r="W40" t="n">
-        <v>282.2123257069078</v>
+        <v>245.0480476906262</v>
       </c>
       <c r="X40" t="n">
-        <v>207.8198122046915</v>
+        <v>170.6555341884097</v>
       </c>
       <c r="Y40" t="n">
-        <v>142.6446039993765</v>
+        <v>105.4803259830946</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1647.54321079245</v>
+        <v>1154.457331186877</v>
       </c>
       <c r="C41" t="n">
-        <v>1389.346843105787</v>
+        <v>896.2609635002134</v>
       </c>
       <c r="D41" t="n">
-        <v>1140.26026931354</v>
+        <v>647.1743897079662</v>
       </c>
       <c r="E41" t="n">
-        <v>869.2119404001756</v>
+        <v>376.1260607946022</v>
       </c>
       <c r="F41" t="n">
-        <v>578.7981406908752</v>
+        <v>257.5727449682008</v>
       </c>
       <c r="G41" t="n">
-        <v>286.9427898674744</v>
+        <v>257.5727449682008</v>
       </c>
       <c r="H41" t="n">
-        <v>83.09469165811028</v>
+        <v>53.72464675883715</v>
       </c>
       <c r="I41" t="n">
-        <v>53.72464675883711</v>
+        <v>53.72464675883715</v>
       </c>
       <c r="J41" t="n">
-        <v>168.2509634005562</v>
+        <v>168.2509634005561</v>
       </c>
       <c r="K41" t="n">
-        <v>472.1294420386278</v>
+        <v>472.1294420386277</v>
       </c>
       <c r="L41" t="n">
-        <v>899.08757246147</v>
+        <v>899.0875724614705</v>
       </c>
       <c r="M41" t="n">
-        <v>1380.310416942195</v>
+        <v>1380.310416942196</v>
       </c>
       <c r="N41" t="n">
-        <v>1848.049121755375</v>
+        <v>1848.049121755377</v>
       </c>
       <c r="O41" t="n">
-        <v>2237.478527880637</v>
+        <v>2237.478527880638</v>
       </c>
       <c r="P41" t="n">
-        <v>2537.690056379756</v>
+        <v>2537.690056379758</v>
       </c>
       <c r="Q41" t="n">
-        <v>2686.232337941855</v>
+        <v>2686.232337941857</v>
       </c>
       <c r="R41" t="n">
-        <v>2686.232337941855</v>
+        <v>2686.232337941857</v>
       </c>
       <c r="S41" t="n">
-        <v>2634.390743108373</v>
+        <v>2634.390743108374</v>
       </c>
       <c r="T41" t="n">
-        <v>2536.007161677501</v>
+        <v>2536.007161677502</v>
       </c>
       <c r="U41" t="n">
-        <v>2404.900115951375</v>
+        <v>2404.900115951376</v>
       </c>
       <c r="V41" t="n">
         <v>2191.658232827846</v>
       </c>
       <c r="W41" t="n">
-        <v>2191.658232827846</v>
+        <v>1952.860693665977</v>
       </c>
       <c r="X41" t="n">
-        <v>2187.653823773573</v>
+        <v>1694.567944167999</v>
       </c>
       <c r="Y41" t="n">
-        <v>1917.84935932994</v>
+        <v>1424.763479724366</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>209.9850324827626</v>
       </c>
       <c r="H42" t="n">
-        <v>112.6889960601582</v>
+        <v>112.6889960601583</v>
       </c>
       <c r="I42" t="n">
-        <v>53.72464675883711</v>
+        <v>53.72464675883715</v>
       </c>
       <c r="J42" t="n">
         <v>139.3080431704606</v>
@@ -7497,10 +7497,10 @@
         <v>836.1232266587785</v>
       </c>
       <c r="M42" t="n">
-        <v>954.5874954469505</v>
+        <v>1389.086145439046</v>
       </c>
       <c r="N42" t="n">
-        <v>1535.580600302081</v>
+        <v>1970.079250294176</v>
       </c>
       <c r="O42" t="n">
         <v>1991.567553461234</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>278.0711475856506</v>
+        <v>278.071147585651</v>
       </c>
       <c r="C43" t="n">
-        <v>232.1925690278602</v>
+        <v>232.1925690278605</v>
       </c>
       <c r="D43" t="n">
-        <v>202.8580668361522</v>
+        <v>202.8580668361524</v>
       </c>
       <c r="E43" t="n">
-        <v>174.5864435780003</v>
+        <v>174.5864435780005</v>
       </c>
       <c r="F43" t="n">
-        <v>145.8431795843067</v>
+        <v>145.8431795843068</v>
       </c>
       <c r="G43" t="n">
-        <v>100.8901487236654</v>
+        <v>100.8901487236655</v>
       </c>
       <c r="H43" t="n">
-        <v>67.29381813417618</v>
+        <v>67.29381813417625</v>
       </c>
       <c r="I43" t="n">
-        <v>53.72464675883711</v>
+        <v>53.72464675883715</v>
       </c>
       <c r="J43" t="n">
-        <v>132.0283215010953</v>
+        <v>53.72464675883715</v>
       </c>
       <c r="K43" t="n">
-        <v>313.0209219692211</v>
+        <v>113.4422303269463</v>
       </c>
       <c r="L43" t="n">
-        <v>447.4908946640254</v>
+        <v>247.4654658537284</v>
       </c>
       <c r="M43" t="n">
-        <v>600.7170521362297</v>
+        <v>521.9666402259494</v>
       </c>
       <c r="N43" t="n">
-        <v>753.5342915303057</v>
+        <v>772.4838877548792</v>
       </c>
       <c r="O43" t="n">
-        <v>1005.042209876188</v>
+        <v>902.7167892007446</v>
       </c>
       <c r="P43" t="n">
-        <v>1216.469796422604</v>
+        <v>1114.144375747161</v>
       </c>
       <c r="Q43" t="n">
-        <v>1216.469796422604</v>
+        <v>1216.469796422605</v>
       </c>
       <c r="R43" t="n">
-        <v>1200.996772455549</v>
+        <v>1200.99677245555</v>
       </c>
       <c r="S43" t="n">
-        <v>1115.020941369834</v>
+        <v>1115.020941369835</v>
       </c>
       <c r="T43" t="n">
-        <v>1006.559230000227</v>
+        <v>1006.559230000228</v>
       </c>
       <c r="U43" t="n">
-        <v>843.1188902039096</v>
+        <v>843.1188902039103</v>
       </c>
       <c r="V43" t="n">
-        <v>706.1209767428614</v>
+        <v>706.120976742862</v>
       </c>
       <c r="W43" t="n">
-        <v>543.7019662407898</v>
+        <v>543.7019662407903</v>
       </c>
       <c r="X43" t="n">
-        <v>436.1868931166948</v>
+        <v>436.1868931166953</v>
       </c>
       <c r="Y43" t="n">
-        <v>337.8891252895012</v>
+        <v>337.8891252895016</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1154.457331186875</v>
+        <v>1154.457331186877</v>
       </c>
       <c r="C44" t="n">
-        <v>1110.890224414266</v>
+        <v>896.2609635002136</v>
       </c>
       <c r="D44" t="n">
-        <v>1110.890224414266</v>
+        <v>647.1743897079664</v>
       </c>
       <c r="E44" t="n">
-        <v>839.8418955009018</v>
+        <v>547.9865446775012</v>
       </c>
       <c r="F44" t="n">
-        <v>549.4280957916014</v>
+        <v>257.5727449682007</v>
       </c>
       <c r="G44" t="n">
         <v>257.5727449682007</v>
       </c>
       <c r="H44" t="n">
-        <v>53.72464675883711</v>
+        <v>53.72464675883715</v>
       </c>
       <c r="I44" t="n">
-        <v>53.72464675883711</v>
+        <v>53.72464675883715</v>
       </c>
       <c r="J44" t="n">
-        <v>168.2509634005559</v>
+        <v>168.2509634005561</v>
       </c>
       <c r="K44" t="n">
-        <v>472.1294420386275</v>
+        <v>472.1294420386276</v>
       </c>
       <c r="L44" t="n">
-        <v>899.08757246147</v>
+        <v>899.0875724614702</v>
       </c>
       <c r="M44" t="n">
-        <v>1380.310416942195</v>
+        <v>1380.310416942196</v>
       </c>
       <c r="N44" t="n">
-        <v>1848.049121755375</v>
+        <v>1848.049121755377</v>
       </c>
       <c r="O44" t="n">
-        <v>2237.478527880637</v>
+        <v>2237.478527880638</v>
       </c>
       <c r="P44" t="n">
-        <v>2537.690056379756</v>
+        <v>2537.690056379758</v>
       </c>
       <c r="Q44" t="n">
-        <v>2686.232337941855</v>
+        <v>2686.232337941857</v>
       </c>
       <c r="R44" t="n">
-        <v>2686.232337941855</v>
+        <v>2686.232337941857</v>
       </c>
       <c r="S44" t="n">
-        <v>2634.390743108372</v>
+        <v>2634.390743108374</v>
       </c>
       <c r="T44" t="n">
-        <v>2536.0071616775</v>
+        <v>2536.007161677503</v>
       </c>
       <c r="U44" t="n">
-        <v>2404.900115951375</v>
+        <v>2404.900115951376</v>
       </c>
       <c r="V44" t="n">
-        <v>2191.658232827845</v>
+        <v>2191.658232827847</v>
       </c>
       <c r="W44" t="n">
-        <v>1952.860693665975</v>
+        <v>1952.860693665977</v>
       </c>
       <c r="X44" t="n">
-        <v>1694.567944167998</v>
+        <v>1694.567944168</v>
       </c>
       <c r="Y44" t="n">
-        <v>1424.763479724365</v>
+        <v>1424.763479724367</v>
       </c>
     </row>
     <row r="45">
@@ -7719,19 +7719,19 @@
         <v>209.9850324827626</v>
       </c>
       <c r="H45" t="n">
-        <v>112.6889960601582</v>
+        <v>112.6889960601583</v>
       </c>
       <c r="I45" t="n">
-        <v>53.72464675883711</v>
+        <v>53.72464675883715</v>
       </c>
       <c r="J45" t="n">
-        <v>139.3080431704606</v>
+        <v>128.8423016805456</v>
       </c>
       <c r="K45" t="n">
-        <v>401.6245766666835</v>
+        <v>401.6245766666834</v>
       </c>
       <c r="L45" t="n">
-        <v>401.6245766666835</v>
+        <v>401.6245766666834</v>
       </c>
       <c r="M45" t="n">
         <v>954.5874954469505</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>278.0711475856506</v>
+        <v>278.0711475856507</v>
       </c>
       <c r="C46" t="n">
         <v>232.1925690278602</v>
@@ -7798,31 +7798,31 @@
         <v>100.8901487236654</v>
       </c>
       <c r="H46" t="n">
-        <v>67.29381813417618</v>
+        <v>67.29381813417621</v>
       </c>
       <c r="I46" t="n">
-        <v>53.72464675883711</v>
+        <v>53.72464675883715</v>
       </c>
       <c r="J46" t="n">
-        <v>53.72464675883711</v>
+        <v>53.72464675883715</v>
       </c>
       <c r="K46" t="n">
-        <v>113.4422303269463</v>
+        <v>234.717247226963</v>
       </c>
       <c r="L46" t="n">
-        <v>247.4654658537283</v>
+        <v>466.4404908885977</v>
       </c>
       <c r="M46" t="n">
-        <v>521.9666402259493</v>
+        <v>740.9416652608187</v>
       </c>
       <c r="N46" t="n">
-        <v>796.058896520042</v>
+        <v>893.7589046548948</v>
       </c>
       <c r="O46" t="n">
-        <v>1047.566814865924</v>
+        <v>1023.99180610076</v>
       </c>
       <c r="P46" t="n">
-        <v>1216.469796422604</v>
+        <v>1114.14437574716</v>
       </c>
       <c r="Q46" t="n">
         <v>1216.469796422604</v>
@@ -7846,7 +7846,7 @@
         <v>543.7019662407898</v>
       </c>
       <c r="X46" t="n">
-        <v>436.1868931166948</v>
+        <v>436.1868931166949</v>
       </c>
       <c r="Y46" t="n">
         <v>337.8891252895012</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>157.109476210864</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
         <v>188.8326827569781</v>
       </c>
       <c r="L2" t="n">
-        <v>201.569890946046</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M2" t="n">
         <v>187.1563144971591</v>
@@ -7991,13 +7991,13 @@
         <v>186.3981141722301</v>
       </c>
       <c r="O2" t="n">
-        <v>186.9547967801205</v>
+        <v>196.9644755630518</v>
       </c>
       <c r="P2" t="n">
-        <v>187.8768090511565</v>
+        <v>197.4820563681108</v>
       </c>
       <c r="Q2" t="n">
-        <v>190.2286203399446</v>
+        <v>190.6330518059216</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,10 +8055,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>112.660818983621</v>
+        <v>113.0652504495981</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>122.005847949598</v>
       </c>
       <c r="L3" t="n">
         <v>112.5754335711478</v>
@@ -8067,16 +8067,16 @@
         <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>116.7248198506397</v>
+        <v>116.3203883846626</v>
       </c>
       <c r="O3" t="n">
-        <v>125.8691273940425</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>118.8638848070747</v>
       </c>
       <c r="Q3" t="n">
-        <v>123.7448702278239</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8140,16 +8140,16 @@
         <v>114.8329510464913</v>
       </c>
       <c r="L4" t="n">
-        <v>119.6034782614375</v>
+        <v>119.1990467954604</v>
       </c>
       <c r="M4" t="n">
-        <v>122.8868782403605</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N4" t="n">
-        <v>113.3497521949563</v>
+        <v>113.7541836609333</v>
       </c>
       <c r="O4" t="n">
-        <v>112.4959374921223</v>
+        <v>122.5056162750536</v>
       </c>
       <c r="P4" t="n">
         <v>111.9040032899324</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>157.109476210864</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
         <v>188.8326827569781</v>
@@ -8225,13 +8225,13 @@
         <v>187.1563144971591</v>
       </c>
       <c r="N5" t="n">
-        <v>186.3981141722301</v>
+        <v>196.0033614891845</v>
       </c>
       <c r="O5" t="n">
         <v>196.9644755630518</v>
       </c>
       <c r="P5" t="n">
-        <v>197.4820563681108</v>
+        <v>197.8864878340879</v>
       </c>
       <c r="Q5" t="n">
         <v>180.6233730229902</v>
@@ -8292,28 +8292,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>113.0652504495981</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>122.005847949598</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>122.1806808881021</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M6" t="n">
-        <v>115.4839025616399</v>
+        <v>125.4935813445713</v>
       </c>
       <c r="N6" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>125.8691273940425</v>
       </c>
       <c r="P6" t="n">
-        <v>118.8638848070747</v>
+        <v>118.4594533410977</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>123.7448702278239</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8377,16 +8377,16 @@
         <v>114.8329510464913</v>
       </c>
       <c r="L7" t="n">
-        <v>119.6034782614375</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M7" t="n">
         <v>122.8868782403605</v>
       </c>
       <c r="N7" t="n">
-        <v>113.3497521949563</v>
+        <v>113.7541836609333</v>
       </c>
       <c r="O7" t="n">
-        <v>112.4959374921223</v>
+        <v>122.1011848090766</v>
       </c>
       <c r="P7" t="n">
         <v>111.9040032899324</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>159.0427441082865</v>
       </c>
       <c r="K8" t="n">
         <v>190.7659506544006</v>
@@ -8462,7 +8462,7 @@
         <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>198.341060852584</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
         <v>198.8977434604743</v>
@@ -8535,19 +8535,19 @@
         <v>123.9391158470206</v>
       </c>
       <c r="L9" t="n">
-        <v>124.0358369512853</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>127.4268492419938</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
         <v>118.6580877480622</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>127.802395291465</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>120.3146094042809</v>
       </c>
       <c r="Q9" t="n">
         <v>113.7351914448925</v>
@@ -8614,13 +8614,13 @@
         <v>104.82327226356</v>
       </c>
       <c r="L10" t="n">
-        <v>109.5937994785061</v>
+        <v>121.53674615886</v>
       </c>
       <c r="M10" t="n">
         <v>124.3376028375667</v>
       </c>
       <c r="N10" t="n">
-        <v>115.6874515583558</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
         <v>124.4388841724762</v>
@@ -8769,7 +8769,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>261.7764871577745</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8778,13 +8778,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>184.2575614020779</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>57.14239494595577</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>77.47047077927547</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9012,7 +9012,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>166.5290576304585</v>
+        <v>252.9769327937154</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.825599723696</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9249,10 +9249,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>166.5290576304585</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>184.257561402079</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9407,7 +9407,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>584.3675935406823</v>
+        <v>584.3675935406825</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
@@ -9647,7 +9647,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N23" t="n">
-        <v>568.5510017355793</v>
+        <v>568.5510017355788</v>
       </c>
       <c r="O23" t="n">
         <v>495.0402356415689</v>
@@ -9723,10 +9723,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>166.5290576304594</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>184.257561402079</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -10197,10 +10197,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>166.5290576304592</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>184.2575614020782</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10589,7 +10589,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L35" t="n">
-        <v>542.9595789155849</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M35" t="n">
         <v>584.3675935406823</v>
@@ -10604,7 +10604,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578761</v>
+        <v>276.009487857878</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10665,10 +10665,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>333.233352065933</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>53.77637970037565</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
@@ -10680,10 +10680,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>169.0473328409827</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>79.1672152029987</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10911,10 +10911,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>184.257561402079</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>73.13348981520771</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11145,13 +11145,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>166.5290576304594</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>73.13348981520771</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236958</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11306,7 +11306,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>568.5510017355793</v>
+        <v>568.5510017355806</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
@@ -11373,13 +11373,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>153.3468898921123</v>
       </c>
       <c r="K45" t="n">
-        <v>333.2333520659331</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>53.77637970037568</v>
+        <v>53.77637970037565</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>287.6764037626064</v>
+        <v>248.8098620659698</v>
       </c>
       <c r="F11" t="n">
-        <v>306.8482198505835</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>308.275355453543</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>221.148175365646</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>183.7087692719693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>274.9529621481728</v>
       </c>
       <c r="D14" t="n">
-        <v>82.28368449156336</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>48.4149025886565</v>
+        <v>48.41490258865653</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>116.738303754939</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>255.7481219086271</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>275.0483801413737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>179.8171480069564</v>
       </c>
     </row>
     <row r="15">
@@ -25637,16 +25637,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>170.1418790440695</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>288.9367973151669</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>29.07634445028045</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25688,10 +25688,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>236.409563770251</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>251.7454570392671</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25865,25 +25865,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>212.4829683049135</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>246.5957080543247</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>170.1418790440694</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>288.9367973151669</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>29.07634445028042</v>
+        <v>29.0763444502804</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>687902.4319079338</v>
+        <v>687902.4319079339</v>
       </c>
     </row>
     <row r="6">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>737460.3343668606</v>
+        <v>737460.3343668607</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>706374.6226417104</v>
+        <v>706374.6226417107</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>706374.6226417104</v>
+        <v>706374.6226417108</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>729096.6637510692</v>
+        <v>729096.6637510693</v>
       </c>
       <c r="C2" t="n">
-        <v>729096.6637510699</v>
+        <v>729096.6637510698</v>
       </c>
       <c r="D2" t="n">
         <v>729242.8574694726</v>
       </c>
       <c r="E2" t="n">
-        <v>670392.8482994977</v>
+        <v>670392.8482994974</v>
       </c>
       <c r="F2" t="n">
-        <v>670392.8482994976</v>
+        <v>670392.8482994979</v>
       </c>
       <c r="G2" t="n">
-        <v>729242.8574694715</v>
+        <v>729242.857469473</v>
       </c>
       <c r="H2" t="n">
-        <v>729242.8574694725</v>
+        <v>729242.8574694729</v>
       </c>
       <c r="I2" t="n">
-        <v>729242.8574694726</v>
+        <v>729242.8574694729</v>
       </c>
       <c r="J2" t="n">
-        <v>729242.857469474</v>
+        <v>729242.8574694737</v>
       </c>
       <c r="K2" t="n">
-        <v>729242.8574694742</v>
+        <v>729242.8574694741</v>
       </c>
       <c r="L2" t="n">
-        <v>729242.8574694735</v>
+        <v>729242.8574694734</v>
       </c>
       <c r="M2" t="n">
-        <v>729242.8574694726</v>
+        <v>729242.8574694719</v>
       </c>
       <c r="N2" t="n">
-        <v>729242.8574694729</v>
+        <v>729242.857469472</v>
       </c>
       <c r="O2" t="n">
-        <v>692328.5747958566</v>
+        <v>692328.574795857</v>
       </c>
       <c r="P2" t="n">
-        <v>692328.5747958565</v>
+        <v>692328.574795857</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>600.5310069763588</v>
       </c>
       <c r="E3" t="n">
-        <v>380624.5014488709</v>
+        <v>380624.5014488705</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>41703.91373122868</v>
+        <v>41703.91373122879</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>95912.8142063493</v>
+        <v>95912.81420634931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>42104.05378756562</v>
+        <v>42104.05378756578</v>
       </c>
       <c r="M3" t="n">
-        <v>156190.3404853369</v>
+        <v>156190.3404853368</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>14592.18619412159</v>
+        <v>14592.18619412169</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,7 +26430,7 @@
         <v>230743.7385014731</v>
       </c>
       <c r="G4" t="n">
-        <v>265865.8803881559</v>
+        <v>265865.880388156</v>
       </c>
       <c r="H4" t="n">
         <v>265865.880388156</v>
@@ -26439,16 +26439,16 @@
         <v>265865.880388156</v>
       </c>
       <c r="J4" t="n">
-        <v>266913.9710178788</v>
+        <v>266913.9710178789</v>
       </c>
       <c r="K4" t="n">
-        <v>266913.9710178789</v>
+        <v>266913.9710178787</v>
       </c>
       <c r="L4" t="n">
         <v>266903.6162345211</v>
       </c>
       <c r="M4" t="n">
-        <v>265865.8803881559</v>
+        <v>265865.880388156</v>
       </c>
       <c r="N4" t="n">
         <v>265865.880388156</v>
@@ -26457,7 +26457,7 @@
         <v>243825.4620577227</v>
       </c>
       <c r="P4" t="n">
-        <v>243825.4620577226</v>
+        <v>243825.4620577227</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>34353.73115816552</v>
       </c>
       <c r="E5" t="n">
-        <v>52248.0411274994</v>
+        <v>52248.04112749938</v>
       </c>
       <c r="F5" t="n">
-        <v>52248.0411274994</v>
+        <v>52248.04112749938</v>
       </c>
       <c r="G5" t="n">
         <v>56630.54903183773</v>
       </c>
       <c r="H5" t="n">
-        <v>56630.54903183771</v>
+        <v>56630.54903183773</v>
       </c>
       <c r="I5" t="n">
         <v>56630.54903183771</v>
       </c>
       <c r="J5" t="n">
-        <v>64440.52471011577</v>
+        <v>64440.52471011578</v>
       </c>
       <c r="K5" t="n">
-        <v>64440.52471011579</v>
+        <v>64440.52471011578</v>
       </c>
       <c r="L5" t="n">
         <v>64365.03123994773</v>
       </c>
       <c r="M5" t="n">
-        <v>56630.54903183771</v>
+        <v>56630.54903183773</v>
       </c>
       <c r="N5" t="n">
-        <v>56630.54903183771</v>
+        <v>56630.54903183774</v>
       </c>
       <c r="O5" t="n">
-        <v>53873.81437163451</v>
+        <v>53873.81437163454</v>
       </c>
       <c r="P5" t="n">
-        <v>53873.81437163451</v>
+        <v>53873.81437163454</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>308775.1323249898</v>
+        <v>308774.7476046784</v>
       </c>
       <c r="C6" t="n">
-        <v>312129.6059077628</v>
+        <v>312129.2211874512</v>
       </c>
       <c r="D6" t="n">
         <v>311786.0773680494</v>
       </c>
       <c r="E6" t="n">
-        <v>6776.567221654375</v>
+        <v>6621.698776470244</v>
       </c>
       <c r="F6" t="n">
-        <v>387401.0686705251</v>
+        <v>387246.2002253413</v>
       </c>
       <c r="G6" t="n">
-        <v>365042.5143182492</v>
+        <v>365042.5143182505</v>
       </c>
       <c r="H6" t="n">
-        <v>406746.4280494788</v>
+        <v>406746.4280494791</v>
       </c>
       <c r="I6" t="n">
-        <v>406746.4280494788</v>
+        <v>406746.4280494791</v>
       </c>
       <c r="J6" t="n">
-        <v>301975.5475351301</v>
+        <v>301975.5475351298</v>
       </c>
       <c r="K6" t="n">
         <v>397888.3617414795</v>
       </c>
       <c r="L6" t="n">
-        <v>355870.1562074391</v>
+        <v>355870.1562074387</v>
       </c>
       <c r="M6" t="n">
-        <v>250556.087564142</v>
+        <v>250556.0875641413</v>
       </c>
       <c r="N6" t="n">
-        <v>406746.4280494791</v>
+        <v>406746.4280494782</v>
       </c>
       <c r="O6" t="n">
-        <v>380037.1121723778</v>
+        <v>379939.9693232369</v>
       </c>
       <c r="P6" t="n">
-        <v>394629.2983664994</v>
+        <v>394532.1555173586</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>103.1614589323478</v>
       </c>
       <c r="G2" t="n">
-        <v>155.2913510963837</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="H2" t="n">
         <v>155.2913510963838</v>
@@ -26707,22 +26707,22 @@
         <v>155.2913510963838</v>
       </c>
       <c r="J2" t="n">
+        <v>103.1614589323479</v>
+      </c>
+      <c r="K2" t="n">
         <v>103.1614589323478</v>
       </c>
-      <c r="K2" t="n">
-        <v>103.1614589323479</v>
-      </c>
       <c r="L2" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="M2" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="N2" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="O2" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="P2" t="n">
         <v>122.500017070724</v>
@@ -26744,13 +26744,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>125.9004082476893</v>
+        <v>125.9004082476889</v>
       </c>
       <c r="F3" t="n">
-        <v>125.9004082476893</v>
+        <v>125.900408247689</v>
       </c>
       <c r="G3" t="n">
-        <v>125.9004082476893</v>
+        <v>125.900408247689</v>
       </c>
       <c r="H3" t="n">
         <v>125.900408247689</v>
@@ -26762,7 +26762,7 @@
         <v>125.900408247689</v>
       </c>
       <c r="K3" t="n">
-        <v>125.9004082476889</v>
+        <v>125.9004082476891</v>
       </c>
       <c r="L3" t="n">
         <v>125.900408247689</v>
@@ -26796,16 +26796,16 @@
         <v>11.94294668035388</v>
       </c>
       <c r="E4" t="n">
-        <v>671.5580844854642</v>
+        <v>671.5580844854641</v>
       </c>
       <c r="F4" t="n">
-        <v>671.5580844854642</v>
+        <v>671.5580844854641</v>
       </c>
       <c r="G4" t="n">
-        <v>671.5580844854642</v>
+        <v>671.5580844854641</v>
       </c>
       <c r="H4" t="n">
-        <v>671.5580844854638</v>
+        <v>671.5580844854641</v>
       </c>
       <c r="I4" t="n">
         <v>671.5580844854638</v>
@@ -26814,22 +26814,22 @@
         <v>872.0923539363915</v>
       </c>
       <c r="K4" t="n">
-        <v>872.0923539363918</v>
+        <v>872.0923539363915</v>
       </c>
       <c r="L4" t="n">
-        <v>870.1590860389692</v>
+        <v>870.159086038969</v>
       </c>
       <c r="M4" t="n">
-        <v>671.5580844854638</v>
+        <v>671.5580844854643</v>
       </c>
       <c r="N4" t="n">
-        <v>671.5580844854638</v>
+        <v>671.5580844854644</v>
       </c>
       <c r="O4" t="n">
-        <v>671.5580844854638</v>
+        <v>671.5580844854643</v>
       </c>
       <c r="P4" t="n">
-        <v>671.5580844854638</v>
+        <v>671.5580844854643</v>
       </c>
     </row>
   </sheetData>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>52.12989216403585</v>
+        <v>52.12989216403599</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>51.03156676831185</v>
+        <v>51.03156676831188</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52.63006723445702</v>
+        <v>52.63006723445723</v>
       </c>
       <c r="M2" t="n">
-        <v>51.62971709361496</v>
+        <v>51.62971709361466</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.24023274265198</v>
+        <v>18.24023274265211</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>125.9004082476893</v>
+        <v>125.9004082476889</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>1.933267897422525</v>
       </c>
       <c r="E4" t="n">
-        <v>659.6151378051103</v>
+        <v>659.6151378051102</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>461.0141362516049</v>
+        <v>461.0141362516055</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52.12989216403585</v>
+        <v>52.12989216403599</v>
       </c>
       <c r="M2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>51.03156676831185</v>
+        <v>51.03156676831188</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>1.933267897422525</v>
       </c>
       <c r="M4" t="n">
-        <v>659.6151378051103</v>
+        <v>659.6151378051102</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>161.0793480203606</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>79.72222485617382</v>
       </c>
       <c r="S2" t="n">
-        <v>176.5401605439436</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
@@ -27439,7 +27439,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>350.093055768969</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
@@ -27458,22 +27458,22 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>150.0769572485235</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>136.7412047716915</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>123.337181286693</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>117.4315361940169</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>88.92880009583757</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>49.17674743307231</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
@@ -27512,10 +27512,10 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>207.493319405667</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>216.101987543218</v>
       </c>
       <c r="W3" t="n">
         <v>238.9027100790231</v>
@@ -27540,13 +27540,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>141.5314954575835</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>140.479245313363</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>140.9461696415493</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
         <v>167.2305511458285</v>
@@ -27555,7 +27555,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>133.9444888813423</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>28.14228914991649</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -27588,19 +27588,19 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>222.030638580472</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>248.1182726142302</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>218.9302606806466</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>79.72222485617382</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>213.298831734293</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>242.3268041402145</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -27682,7 +27682,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>380.7899117979144</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>147.8155695705169</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
         <v>160.0866360314548</v>
@@ -27701,7 +27701,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>136.7412047716915</v>
       </c>
       <c r="F6" t="n">
         <v>133.3468600696244</v>
@@ -27710,10 +27710,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>88.92880009583757</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>58.88193738483366</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>176.7885740127433</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
@@ -27758,7 +27758,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>185.928139458052</v>
       </c>
       <c r="Y6" t="n">
         <v>190.5961130869169</v>
@@ -27795,7 +27795,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>49.44698741703764</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>138.0168847888342</v>
       </c>
       <c r="S7" t="n">
-        <v>201.5629861874179</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
         <v>220.8374848695466</v>
@@ -27834,7 +27834,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>273.2851586848435</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27856,13 +27856,13 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>357.1527784446948</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>398.0667321025775</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27901,10 +27901,10 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>173.4137389355957</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>210.172410125945</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27913,7 +27913,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>348.3902334049193</v>
+        <v>358.3999121878506</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
@@ -27932,7 +27932,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>149.5672885953991</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
@@ -27941,7 +27941,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>121.4039133892705</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -27980,22 +27980,22 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>139.3285454370332</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>174.8553061153208</v>
       </c>
       <c r="U9" t="n">
-        <v>204.366897797319</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>215.5923188900937</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>183.9948715606295</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>169.7768683171821</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
@@ -28017,19 +28017,19 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>139.9695766602387</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>139.0129017441268</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>155.2876044654746</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>130.8180672729944</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
         <v>59.456666199969</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>26.20902125249397</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>201.0533175342936</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>272.3753904354372</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>57.93857089703921</v>
+        <v>57.9385708970393</v>
       </c>
       <c r="S11" t="n">
         <v>103.1614589323478</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>57.93857089703921</v>
+        <v>57.93857089703927</v>
       </c>
       <c r="S14" t="n">
         <v>103.1614589323478</v>
@@ -28524,7 +28524,7 @@
         <v>103.1614589323478</v>
       </c>
       <c r="P16" t="n">
-        <v>103.1614589323476</v>
+        <v>103.1614589323477</v>
       </c>
       <c r="Q16" t="n">
         <v>103.1614589323478</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>155.2913510963837</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="C17" t="n">
-        <v>155.2913510963837</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="D17" t="n">
-        <v>155.2913510963837</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="E17" t="n">
-        <v>155.2913510963837</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="F17" t="n">
-        <v>155.2913510963837</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="G17" t="n">
-        <v>155.2913510963837</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="H17" t="n">
-        <v>155.2913510963837</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="I17" t="n">
-        <v>151.5763615210043</v>
+        <v>151.5763615210044</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>57.93857089703921</v>
+        <v>57.93857089704017</v>
       </c>
       <c r="S17" t="n">
-        <v>155.2913510963837</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="T17" t="n">
-        <v>155.2913510963837</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="U17" t="n">
-        <v>155.2913510963837</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="V17" t="n">
-        <v>155.2913510963837</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="W17" t="n">
-        <v>155.2913510963837</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="X17" t="n">
-        <v>155.2913510963837</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="Y17" t="n">
-        <v>155.2913510963837</v>
+        <v>155.2913510963838</v>
       </c>
     </row>
     <row r="18">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>155.2913510963837</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="C19" t="n">
-        <v>155.2913510963837</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,16 +28734,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>118.4987158602653</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="H19" t="n">
-        <v>155.2913510963837</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="I19" t="n">
         <v>135.9334967323096</v>
       </c>
       <c r="J19" t="n">
-        <v>43.40539611894803</v>
+        <v>43.40539611894806</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.14100628744677</v>
+        <v>19.14100628744681</v>
       </c>
       <c r="R19" t="n">
         <v>137.8183107981087</v>
       </c>
       <c r="S19" t="n">
-        <v>155.2913510963837</v>
+        <v>118.4987158602642</v>
       </c>
       <c r="T19" t="n">
-        <v>155.2913510963837</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="U19" t="n">
-        <v>155.2913510963837</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="V19" t="n">
-        <v>155.2913510963837</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="W19" t="n">
-        <v>155.2913510963837</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="X19" t="n">
-        <v>155.2913510963837</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="Y19" t="n">
-        <v>155.2913510963837</v>
+        <v>155.2913510963838</v>
       </c>
     </row>
     <row r="20">
@@ -28968,7 +28968,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>114.163213188361</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
         <v>155.2913510963838</v>
@@ -29007,7 +29007,7 @@
         <v>137.8183107981087</v>
       </c>
       <c r="S22" t="n">
-        <v>155.2913510963838</v>
+        <v>118.4987158602642</v>
       </c>
       <c r="T22" t="n">
         <v>155.2913510963838</v>
@@ -29247,7 +29247,7 @@
         <v>155.2913510963838</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4987158602642</v>
+        <v>155.2913510963838</v>
       </c>
       <c r="U25" t="n">
         <v>155.2913510963838</v>
@@ -29256,7 +29256,7 @@
         <v>155.2913510963838</v>
       </c>
       <c r="W25" t="n">
-        <v>155.2913510963838</v>
+        <v>118.4987158602642</v>
       </c>
       <c r="X25" t="n">
         <v>155.2913510963838</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="C26" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="D26" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="E26" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="F26" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="G26" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="H26" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="I26" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="J26" t="n">
         <v>26.68158251667742</v>
       </c>
       <c r="K26" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="L26" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="M26" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="N26" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="O26" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="P26" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="Q26" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="R26" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="S26" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="T26" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="U26" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="V26" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="W26" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="X26" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="Y26" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="C28" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="D28" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="E28" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="F28" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="G28" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="H28" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="I28" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="J28" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="K28" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="L28" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="M28" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="N28" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="O28" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="P28" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="Q28" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="R28" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="S28" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="T28" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="U28" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="V28" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="W28" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="X28" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.1614589323478</v>
+        <v>103.1614589323479</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="C29" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="D29" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="E29" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="F29" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="G29" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="H29" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="I29" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="J29" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="K29" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="L29" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="M29" t="n">
-        <v>103.1614589323479</v>
+        <v>26.68158251667705</v>
       </c>
       <c r="N29" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="O29" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="P29" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="Q29" t="n">
-        <v>26.68158251667836</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="R29" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="S29" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="T29" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="U29" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="V29" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="W29" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="X29" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="Y29" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="C31" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="D31" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="E31" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="F31" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="G31" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="H31" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="I31" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="J31" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="K31" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="L31" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="M31" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="N31" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="O31" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="P31" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="Q31" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="R31" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="S31" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="T31" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="U31" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="V31" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="W31" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="X31" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.1614589323479</v>
+        <v>103.1614589323478</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="C32" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="D32" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="E32" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="F32" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="G32" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="H32" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="I32" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="J32" t="n">
-        <v>15.02522219785769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="K32" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="L32" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="M32" t="n">
-        <v>103.661634002769</v>
+        <v>15.02522219785612</v>
       </c>
       <c r="N32" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="O32" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="P32" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="Q32" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="R32" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="S32" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="T32" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="U32" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="V32" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="W32" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="X32" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="Y32" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="C34" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="D34" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="E34" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="F34" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="G34" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="H34" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="I34" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="J34" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="K34" t="n">
-        <v>91.49494303358486</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="L34" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="M34" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="N34" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="O34" t="n">
-        <v>103.661634002769</v>
+        <v>91.49494303358409</v>
       </c>
       <c r="P34" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="Q34" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="R34" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="S34" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="T34" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="U34" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="V34" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="W34" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="X34" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.661634002769</v>
+        <v>103.6616340027691</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="C35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="D35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="E35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="F35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="G35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="H35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="I35" t="n">
         <v>151.5763615210044</v>
@@ -30034,25 +30034,25 @@
         <v>57.93857089703927</v>
       </c>
       <c r="S35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="T35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="U35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="V35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="W35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="X35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="Y35" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
     </row>
     <row r="36">
@@ -30141,13 +30141,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="C37" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="D37" t="n">
-        <v>114.7485390043953</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -30156,10 +30156,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="H37" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="I37" t="n">
         <v>135.9334967323096</v>
@@ -30192,25 +30192,25 @@
         <v>137.8183107981087</v>
       </c>
       <c r="S37" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="T37" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="U37" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="V37" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="W37" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="X37" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="Y37" t="n">
-        <v>155.2913510963838</v>
+        <v>118.4987158602652</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="C38" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="D38" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="E38" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="F38" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="G38" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="H38" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="I38" t="n">
         <v>151.5763615210044</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>57.93857089703927</v>
+        <v>57.93857089704152</v>
       </c>
       <c r="S38" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="T38" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="U38" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="V38" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="W38" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="X38" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="Y38" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="C40" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30390,13 +30390,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>114.163213188361</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="H40" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="I40" t="n">
         <v>135.9334967323096</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.14100628744681</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>137.8183107981087</v>
       </c>
       <c r="S40" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="T40" t="n">
-        <v>155.2913510963838</v>
+        <v>137.6397221477122</v>
       </c>
       <c r="U40" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="V40" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="W40" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="X40" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
       <c r="Y40" t="n">
-        <v>155.2913510963838</v>
+        <v>155.2913510963837</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="C41" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="D41" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="E41" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="F41" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="G41" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="H41" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="I41" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>57.93857089703928</v>
+        <v>57.93857089703927</v>
       </c>
       <c r="S41" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="T41" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="U41" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="V41" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="W41" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="X41" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="Y41" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="C43" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="D43" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="E43" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="F43" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="G43" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="H43" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="I43" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="J43" t="n">
-        <v>122.500017070724</v>
+        <v>43.40539611894806</v>
       </c>
       <c r="K43" t="n">
-        <v>122.500017070724</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4512496646688362</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>98.68687690389271</v>
       </c>
       <c r="O43" t="n">
-        <v>122.500017070724</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.14100628744682</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="R43" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="S43" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="T43" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="U43" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="V43" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="W43" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="X43" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
       <c r="Y43" t="n">
-        <v>122.500017070724</v>
+        <v>122.5000170707239</v>
       </c>
     </row>
     <row r="44">
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>57.93857089703928</v>
+        <v>57.93857089703927</v>
       </c>
       <c r="S44" t="n">
         <v>122.500017070724</v>
@@ -30879,25 +30879,25 @@
         <v>43.40539611894806</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>122.500017070724</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>98.68687690389149</v>
       </c>
       <c r="M46" t="n">
         <v>122.500017070724</v>
       </c>
       <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>122.500017070724</v>
-      </c>
-      <c r="O46" t="n">
-        <v>122.500017070724</v>
-      </c>
-      <c r="P46" t="n">
-        <v>79.54587061644474</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>19.14100628744682</v>
       </c>
       <c r="R46" t="n">
         <v>122.500017070724</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5061322944630721</v>
+        <v>0.5061322944630706</v>
       </c>
       <c r="H11" t="n">
-        <v>5.183427360669938</v>
+        <v>5.183427360669923</v>
       </c>
       <c r="I11" t="n">
-        <v>19.5126652822876</v>
+        <v>19.51266528228755</v>
       </c>
       <c r="J11" t="n">
-        <v>42.9573458271852</v>
+        <v>42.95734582718508</v>
       </c>
       <c r="K11" t="n">
-        <v>64.38192585180705</v>
+        <v>64.38192585180687</v>
       </c>
       <c r="L11" t="n">
-        <v>79.87147205848132</v>
+        <v>79.87147205848109</v>
       </c>
       <c r="M11" t="n">
-        <v>88.87240225013896</v>
+        <v>88.87240225013872</v>
       </c>
       <c r="N11" t="n">
-        <v>90.31045063178217</v>
+        <v>90.31045063178192</v>
       </c>
       <c r="O11" t="n">
-        <v>85.277597628715</v>
+        <v>85.27759762871476</v>
       </c>
       <c r="P11" t="n">
-        <v>72.78245660915789</v>
+        <v>72.78245660915769</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.65659381369911</v>
+        <v>54.65659381369895</v>
       </c>
       <c r="R11" t="n">
-        <v>31.79333274206598</v>
+        <v>31.79333274206589</v>
       </c>
       <c r="S11" t="n">
-        <v>11.53348966007727</v>
+        <v>11.53348966007723</v>
       </c>
       <c r="T11" t="n">
-        <v>2.215594119012099</v>
+        <v>2.215594119012093</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04049058355704575</v>
+        <v>0.04049058355704564</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2708046517025769</v>
+        <v>0.2708046517025762</v>
       </c>
       <c r="H12" t="n">
-        <v>2.615402820390678</v>
+        <v>2.61540282039067</v>
       </c>
       <c r="I12" t="n">
-        <v>9.323756648531706</v>
+        <v>9.323756648531681</v>
       </c>
       <c r="J12" t="n">
-        <v>25.58510088739127</v>
+        <v>25.5851008873912</v>
       </c>
       <c r="K12" t="n">
-        <v>43.72901255146392</v>
+        <v>43.7290125514638</v>
       </c>
       <c r="L12" t="n">
-        <v>58.79905387077225</v>
+        <v>58.79905387077208</v>
       </c>
       <c r="M12" t="n">
-        <v>68.61572249499065</v>
+        <v>68.61572249499045</v>
       </c>
       <c r="N12" t="n">
-        <v>70.43177649697856</v>
+        <v>70.43177649697836</v>
       </c>
       <c r="O12" t="n">
-        <v>64.43131553030565</v>
+        <v>64.43131553030548</v>
       </c>
       <c r="P12" t="n">
-        <v>51.7118110781877</v>
+        <v>51.71181107818755</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.56797624189386</v>
+        <v>34.56797624189376</v>
       </c>
       <c r="R12" t="n">
-        <v>16.81364319956877</v>
+        <v>16.81364319956873</v>
       </c>
       <c r="S12" t="n">
-        <v>5.030077631405318</v>
+        <v>5.030077631405304</v>
       </c>
       <c r="T12" t="n">
-        <v>1.091532784713457</v>
+        <v>1.091532784713453</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01781609550674849</v>
+        <v>0.01781609550674844</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2270335230696036</v>
+        <v>0.2270335230696029</v>
       </c>
       <c r="H13" t="n">
-        <v>2.018534414200659</v>
+        <v>2.018534414200653</v>
       </c>
       <c r="I13" t="n">
-        <v>6.827517221038626</v>
+        <v>6.827517221038607</v>
       </c>
       <c r="J13" t="n">
-        <v>16.05127008102097</v>
+        <v>16.05127008102093</v>
       </c>
       <c r="K13" t="n">
-        <v>26.3771674984503</v>
+        <v>26.37716749845023</v>
       </c>
       <c r="L13" t="n">
-        <v>33.75369305709361</v>
+        <v>33.75369305709352</v>
       </c>
       <c r="M13" t="n">
-        <v>35.58853671171976</v>
+        <v>35.58853671171966</v>
       </c>
       <c r="N13" t="n">
-        <v>34.74232085300581</v>
+        <v>34.74232085300572</v>
       </c>
       <c r="O13" t="n">
-        <v>32.09015651532907</v>
+        <v>32.09015651532898</v>
       </c>
       <c r="P13" t="n">
-        <v>27.45867264470914</v>
+        <v>27.45867264470906</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.01096164540108</v>
+        <v>19.01096164540103</v>
       </c>
       <c r="R13" t="n">
-        <v>10.2082527736569</v>
+        <v>10.20825277365687</v>
       </c>
       <c r="S13" t="n">
-        <v>3.956575124767545</v>
+        <v>3.956575124767534</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9700523258428514</v>
+        <v>0.9700523258428486</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01238364671288748</v>
+        <v>0.01238364671288745</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5061322944630721</v>
+        <v>0.5061322944630711</v>
       </c>
       <c r="H14" t="n">
-        <v>5.183427360669938</v>
+        <v>5.183427360669928</v>
       </c>
       <c r="I14" t="n">
-        <v>19.5126652822876</v>
+        <v>19.51266528228757</v>
       </c>
       <c r="J14" t="n">
-        <v>42.9573458271852</v>
+        <v>42.95734582718512</v>
       </c>
       <c r="K14" t="n">
-        <v>64.38192585180705</v>
+        <v>64.38192585180693</v>
       </c>
       <c r="L14" t="n">
-        <v>79.87147205848132</v>
+        <v>79.87147205848116</v>
       </c>
       <c r="M14" t="n">
-        <v>88.87240225013896</v>
+        <v>88.87240225013879</v>
       </c>
       <c r="N14" t="n">
-        <v>90.31045063178217</v>
+        <v>90.310450631782</v>
       </c>
       <c r="O14" t="n">
-        <v>85.277597628715</v>
+        <v>85.27759762871483</v>
       </c>
       <c r="P14" t="n">
-        <v>72.78245660915789</v>
+        <v>72.78245660915776</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.65659381369911</v>
+        <v>54.656593813699</v>
       </c>
       <c r="R14" t="n">
-        <v>31.79333274206598</v>
+        <v>31.79333274206592</v>
       </c>
       <c r="S14" t="n">
-        <v>11.53348966007727</v>
+        <v>11.53348966007724</v>
       </c>
       <c r="T14" t="n">
-        <v>2.215594119012099</v>
+        <v>2.215594119012095</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04049058355704575</v>
+        <v>0.04049058355704568</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2708046517025769</v>
+        <v>0.2708046517025764</v>
       </c>
       <c r="H15" t="n">
-        <v>2.615402820390678</v>
+        <v>2.615402820390673</v>
       </c>
       <c r="I15" t="n">
-        <v>9.323756648531706</v>
+        <v>9.323756648531688</v>
       </c>
       <c r="J15" t="n">
-        <v>25.58510088739127</v>
+        <v>25.58510088739122</v>
       </c>
       <c r="K15" t="n">
-        <v>43.72901255146392</v>
+        <v>43.72901255146385</v>
       </c>
       <c r="L15" t="n">
-        <v>58.79905387077225</v>
+        <v>58.79905387077213</v>
       </c>
       <c r="M15" t="n">
-        <v>68.61572249499065</v>
+        <v>68.61572249499051</v>
       </c>
       <c r="N15" t="n">
-        <v>70.43177649697856</v>
+        <v>70.43177649697842</v>
       </c>
       <c r="O15" t="n">
-        <v>64.43131553030565</v>
+        <v>64.43131553030554</v>
       </c>
       <c r="P15" t="n">
-        <v>51.7118110781877</v>
+        <v>51.7118110781876</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.56797624189386</v>
+        <v>34.56797624189379</v>
       </c>
       <c r="R15" t="n">
-        <v>16.81364319956877</v>
+        <v>16.81364319956874</v>
       </c>
       <c r="S15" t="n">
-        <v>5.030077631405318</v>
+        <v>5.030077631405309</v>
       </c>
       <c r="T15" t="n">
-        <v>1.091532784713457</v>
+        <v>1.091532784713455</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01781609550674849</v>
+        <v>0.01781609550674846</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2270335230696036</v>
+        <v>0.2270335230696031</v>
       </c>
       <c r="H16" t="n">
-        <v>2.018534414200659</v>
+        <v>2.018534414200655</v>
       </c>
       <c r="I16" t="n">
-        <v>6.827517221038626</v>
+        <v>6.827517221038613</v>
       </c>
       <c r="J16" t="n">
-        <v>16.05127008102097</v>
+        <v>16.05127008102094</v>
       </c>
       <c r="K16" t="n">
-        <v>26.3771674984503</v>
+        <v>26.37716749845025</v>
       </c>
       <c r="L16" t="n">
-        <v>33.75369305709361</v>
+        <v>33.75369305709355</v>
       </c>
       <c r="M16" t="n">
-        <v>35.58853671171976</v>
+        <v>35.5885367117197</v>
       </c>
       <c r="N16" t="n">
-        <v>34.74232085300581</v>
+        <v>34.74232085300575</v>
       </c>
       <c r="O16" t="n">
-        <v>32.09015651532907</v>
+        <v>32.09015651532901</v>
       </c>
       <c r="P16" t="n">
-        <v>27.45867264470914</v>
+        <v>27.45867264470908</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.01096164540108</v>
+        <v>19.01096164540104</v>
       </c>
       <c r="R16" t="n">
-        <v>10.2082527736569</v>
+        <v>10.20825277365688</v>
       </c>
       <c r="S16" t="n">
-        <v>3.956575124767545</v>
+        <v>3.956575124767537</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9700523258428514</v>
+        <v>0.9700523258428495</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01238364671288748</v>
+        <v>0.01238364671288746</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5061322944630721</v>
+        <v>0.5061322944630711</v>
       </c>
       <c r="H17" t="n">
-        <v>5.183427360669938</v>
+        <v>5.183427360669928</v>
       </c>
       <c r="I17" t="n">
-        <v>19.5126652822876</v>
+        <v>19.51266528228757</v>
       </c>
       <c r="J17" t="n">
-        <v>42.9573458271852</v>
+        <v>42.95734582718512</v>
       </c>
       <c r="K17" t="n">
-        <v>64.38192585180705</v>
+        <v>64.38192585180693</v>
       </c>
       <c r="L17" t="n">
-        <v>79.87147205848132</v>
+        <v>79.87147205848116</v>
       </c>
       <c r="M17" t="n">
-        <v>88.87240225013896</v>
+        <v>88.87240225013879</v>
       </c>
       <c r="N17" t="n">
-        <v>90.31045063178217</v>
+        <v>90.310450631782</v>
       </c>
       <c r="O17" t="n">
-        <v>85.277597628715</v>
+        <v>85.27759762871483</v>
       </c>
       <c r="P17" t="n">
-        <v>72.78245660915789</v>
+        <v>72.78245660915776</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.65659381369911</v>
+        <v>54.656593813699</v>
       </c>
       <c r="R17" t="n">
-        <v>31.79333274206598</v>
+        <v>31.79333274206592</v>
       </c>
       <c r="S17" t="n">
-        <v>11.53348966007727</v>
+        <v>11.53348966007724</v>
       </c>
       <c r="T17" t="n">
-        <v>2.215594119012099</v>
+        <v>2.215594119012095</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04049058355704575</v>
+        <v>0.04049058355704568</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2708046517025769</v>
+        <v>0.2708046517025764</v>
       </c>
       <c r="H18" t="n">
-        <v>2.615402820390678</v>
+        <v>2.615402820390673</v>
       </c>
       <c r="I18" t="n">
-        <v>9.323756648531706</v>
+        <v>9.323756648531688</v>
       </c>
       <c r="J18" t="n">
-        <v>25.58510088739127</v>
+        <v>25.58510088739122</v>
       </c>
       <c r="K18" t="n">
-        <v>43.72901255146392</v>
+        <v>43.72901255146385</v>
       </c>
       <c r="L18" t="n">
-        <v>58.79905387077225</v>
+        <v>58.79905387077213</v>
       </c>
       <c r="M18" t="n">
-        <v>68.61572249499065</v>
+        <v>68.61572249499051</v>
       </c>
       <c r="N18" t="n">
-        <v>70.43177649697856</v>
+        <v>70.43177649697842</v>
       </c>
       <c r="O18" t="n">
-        <v>64.43131553030565</v>
+        <v>64.43131553030554</v>
       </c>
       <c r="P18" t="n">
-        <v>51.7118110781877</v>
+        <v>51.7118110781876</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.56797624189386</v>
+        <v>34.56797624189379</v>
       </c>
       <c r="R18" t="n">
-        <v>16.81364319956877</v>
+        <v>16.81364319956874</v>
       </c>
       <c r="S18" t="n">
-        <v>5.030077631405318</v>
+        <v>5.030077631405309</v>
       </c>
       <c r="T18" t="n">
-        <v>1.091532784713457</v>
+        <v>1.091532784713455</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01781609550674849</v>
+        <v>0.01781609550674846</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2270335230696036</v>
+        <v>0.2270335230696031</v>
       </c>
       <c r="H19" t="n">
-        <v>2.018534414200659</v>
+        <v>2.018534414200655</v>
       </c>
       <c r="I19" t="n">
-        <v>6.827517221038626</v>
+        <v>6.827517221038613</v>
       </c>
       <c r="J19" t="n">
-        <v>16.05127008102097</v>
+        <v>16.05127008102094</v>
       </c>
       <c r="K19" t="n">
-        <v>26.3771674984503</v>
+        <v>26.37716749845025</v>
       </c>
       <c r="L19" t="n">
-        <v>33.75369305709361</v>
+        <v>33.75369305709355</v>
       </c>
       <c r="M19" t="n">
-        <v>35.58853671171976</v>
+        <v>35.5885367117197</v>
       </c>
       <c r="N19" t="n">
-        <v>34.74232085300581</v>
+        <v>34.74232085300575</v>
       </c>
       <c r="O19" t="n">
-        <v>32.09015651532907</v>
+        <v>32.09015651532901</v>
       </c>
       <c r="P19" t="n">
-        <v>27.45867264470914</v>
+        <v>27.45867264470908</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.01096164540108</v>
+        <v>19.01096164540104</v>
       </c>
       <c r="R19" t="n">
-        <v>10.2082527736569</v>
+        <v>10.20825277365688</v>
       </c>
       <c r="S19" t="n">
-        <v>3.956575124767545</v>
+        <v>3.956575124767537</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9700523258428514</v>
+        <v>0.9700523258428495</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01238364671288748</v>
+        <v>0.01238364671288746</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5061322944630706</v>
+        <v>0.5061322944630715</v>
       </c>
       <c r="H29" t="n">
-        <v>5.183427360669923</v>
+        <v>5.183427360669933</v>
       </c>
       <c r="I29" t="n">
-        <v>19.51266528228755</v>
+        <v>19.51266528228759</v>
       </c>
       <c r="J29" t="n">
-        <v>42.95734582718508</v>
+        <v>42.95734582718516</v>
       </c>
       <c r="K29" t="n">
-        <v>64.38192585180687</v>
+        <v>64.38192585180698</v>
       </c>
       <c r="L29" t="n">
-        <v>79.87147205848109</v>
+        <v>79.87147205848123</v>
       </c>
       <c r="M29" t="n">
-        <v>88.87240225013872</v>
+        <v>88.87240225013888</v>
       </c>
       <c r="N29" t="n">
-        <v>90.31045063178192</v>
+        <v>90.31045063178209</v>
       </c>
       <c r="O29" t="n">
-        <v>85.27759762871476</v>
+        <v>85.27759762871491</v>
       </c>
       <c r="P29" t="n">
-        <v>72.78245660915769</v>
+        <v>72.78245660915782</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.65659381369895</v>
+        <v>54.65659381369905</v>
       </c>
       <c r="R29" t="n">
-        <v>31.79333274206589</v>
+        <v>31.79333274206595</v>
       </c>
       <c r="S29" t="n">
-        <v>11.53348966007723</v>
+        <v>11.53348966007725</v>
       </c>
       <c r="T29" t="n">
-        <v>2.215594119012093</v>
+        <v>2.215594119012097</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04049058355704564</v>
+        <v>0.04049058355704572</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2708046517025762</v>
+        <v>0.2708046517025767</v>
       </c>
       <c r="H30" t="n">
-        <v>2.61540282039067</v>
+        <v>2.615402820390675</v>
       </c>
       <c r="I30" t="n">
-        <v>9.323756648531681</v>
+        <v>9.323756648531697</v>
       </c>
       <c r="J30" t="n">
-        <v>25.5851008873912</v>
+        <v>25.58510088739125</v>
       </c>
       <c r="K30" t="n">
-        <v>43.7290125514638</v>
+        <v>43.72901255146388</v>
       </c>
       <c r="L30" t="n">
-        <v>58.79905387077208</v>
+        <v>58.79905387077218</v>
       </c>
       <c r="M30" t="n">
-        <v>68.61572249499045</v>
+        <v>68.61572249499058</v>
       </c>
       <c r="N30" t="n">
-        <v>70.43177649697836</v>
+        <v>70.43177649697849</v>
       </c>
       <c r="O30" t="n">
-        <v>64.43131553030548</v>
+        <v>64.4313155303056</v>
       </c>
       <c r="P30" t="n">
-        <v>51.71181107818755</v>
+        <v>51.71181107818764</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.56797624189376</v>
+        <v>34.56797624189382</v>
       </c>
       <c r="R30" t="n">
-        <v>16.81364319956873</v>
+        <v>16.81364319956876</v>
       </c>
       <c r="S30" t="n">
-        <v>5.030077631405304</v>
+        <v>5.030077631405313</v>
       </c>
       <c r="T30" t="n">
-        <v>1.091532784713453</v>
+        <v>1.091532784713455</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01781609550674844</v>
+        <v>0.01781609550674847</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2270335230696029</v>
+        <v>0.2270335230696033</v>
       </c>
       <c r="H31" t="n">
-        <v>2.018534414200653</v>
+        <v>2.018534414200657</v>
       </c>
       <c r="I31" t="n">
-        <v>6.827517221038607</v>
+        <v>6.827517221038619</v>
       </c>
       <c r="J31" t="n">
-        <v>16.05127008102093</v>
+        <v>16.05127008102096</v>
       </c>
       <c r="K31" t="n">
-        <v>26.37716749845023</v>
+        <v>26.37716749845027</v>
       </c>
       <c r="L31" t="n">
-        <v>33.75369305709352</v>
+        <v>33.75369305709358</v>
       </c>
       <c r="M31" t="n">
-        <v>35.58853671171966</v>
+        <v>35.58853671171973</v>
       </c>
       <c r="N31" t="n">
-        <v>34.74232085300572</v>
+        <v>34.74232085300578</v>
       </c>
       <c r="O31" t="n">
-        <v>32.09015651532898</v>
+        <v>32.09015651532903</v>
       </c>
       <c r="P31" t="n">
-        <v>27.45867264470906</v>
+        <v>27.45867264470911</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.01096164540103</v>
+        <v>19.01096164540106</v>
       </c>
       <c r="R31" t="n">
-        <v>10.20825277365687</v>
+        <v>10.20825277365689</v>
       </c>
       <c r="S31" t="n">
-        <v>3.956575124767534</v>
+        <v>3.956575124767541</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9700523258428486</v>
+        <v>0.9700523258428504</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01238364671288745</v>
+        <v>0.01238364671288747</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5061322944630708</v>
+        <v>0.5061322944630711</v>
       </c>
       <c r="H41" t="n">
-        <v>5.183427360669926</v>
+        <v>5.183427360669928</v>
       </c>
       <c r="I41" t="n">
-        <v>19.51266528228756</v>
+        <v>19.51266528228757</v>
       </c>
       <c r="J41" t="n">
-        <v>42.9573458271851</v>
+        <v>42.95734582718512</v>
       </c>
       <c r="K41" t="n">
-        <v>64.3819258518069</v>
+        <v>64.38192585180693</v>
       </c>
       <c r="L41" t="n">
-        <v>79.87147205848112</v>
+        <v>79.87147205848116</v>
       </c>
       <c r="M41" t="n">
-        <v>88.87240225013876</v>
+        <v>88.87240225013879</v>
       </c>
       <c r="N41" t="n">
-        <v>90.31045063178196</v>
+        <v>90.310450631782</v>
       </c>
       <c r="O41" t="n">
-        <v>85.2775976287148</v>
+        <v>85.27759762871483</v>
       </c>
       <c r="P41" t="n">
-        <v>72.78245660915772</v>
+        <v>72.78245660915776</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.65659381369898</v>
+        <v>54.656593813699</v>
       </c>
       <c r="R41" t="n">
-        <v>31.7933327420659</v>
+        <v>31.79333274206592</v>
       </c>
       <c r="S41" t="n">
         <v>11.53348966007724</v>
       </c>
       <c r="T41" t="n">
-        <v>2.215594119012094</v>
+        <v>2.215594119012095</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04049058355704566</v>
+        <v>0.04049058355704568</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2708046517025763</v>
+        <v>0.2708046517025764</v>
       </c>
       <c r="H42" t="n">
-        <v>2.615402820390671</v>
+        <v>2.615402820390673</v>
       </c>
       <c r="I42" t="n">
-        <v>9.323756648531685</v>
+        <v>9.323756648531688</v>
       </c>
       <c r="J42" t="n">
-        <v>25.58510088739121</v>
+        <v>25.58510088739122</v>
       </c>
       <c r="K42" t="n">
-        <v>43.72901255146382</v>
+        <v>43.72901255146385</v>
       </c>
       <c r="L42" t="n">
-        <v>58.79905387077211</v>
+        <v>58.79905387077213</v>
       </c>
       <c r="M42" t="n">
-        <v>68.61572249499048</v>
+        <v>68.61572249499051</v>
       </c>
       <c r="N42" t="n">
-        <v>70.43177649697839</v>
+        <v>70.43177649697842</v>
       </c>
       <c r="O42" t="n">
-        <v>64.43131553030551</v>
+        <v>64.43131553030554</v>
       </c>
       <c r="P42" t="n">
-        <v>51.71181107818757</v>
+        <v>51.7118110781876</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.56797624189377</v>
+        <v>34.56797624189379</v>
       </c>
       <c r="R42" t="n">
-        <v>16.81364319956873</v>
+        <v>16.81364319956874</v>
       </c>
       <c r="S42" t="n">
-        <v>5.030077631405306</v>
+        <v>5.030077631405309</v>
       </c>
       <c r="T42" t="n">
-        <v>1.091532784713454</v>
+        <v>1.091532784713455</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01781609550674845</v>
+        <v>0.01781609550674846</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,34 +34278,34 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.227033523069603</v>
+        <v>0.2270335230696031</v>
       </c>
       <c r="H43" t="n">
-        <v>2.018534414200654</v>
+        <v>2.018534414200655</v>
       </c>
       <c r="I43" t="n">
-        <v>6.82751722103861</v>
+        <v>6.827517221038613</v>
       </c>
       <c r="J43" t="n">
-        <v>16.05127008102093</v>
+        <v>16.05127008102094</v>
       </c>
       <c r="K43" t="n">
-        <v>26.37716749845024</v>
+        <v>26.37716749845025</v>
       </c>
       <c r="L43" t="n">
-        <v>33.75369305709354</v>
+        <v>33.75369305709355</v>
       </c>
       <c r="M43" t="n">
-        <v>35.58853671171968</v>
+        <v>35.5885367117197</v>
       </c>
       <c r="N43" t="n">
-        <v>34.74232085300573</v>
+        <v>34.74232085300575</v>
       </c>
       <c r="O43" t="n">
-        <v>32.09015651532899</v>
+        <v>32.09015651532901</v>
       </c>
       <c r="P43" t="n">
-        <v>27.45867264470907</v>
+        <v>27.45867264470908</v>
       </c>
       <c r="Q43" t="n">
         <v>19.01096164540104</v>
@@ -34314,13 +34314,13 @@
         <v>10.20825277365688</v>
       </c>
       <c r="S43" t="n">
-        <v>3.956575124767535</v>
+        <v>3.956575124767537</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9700523258428491</v>
+        <v>0.9700523258428495</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01238364671288745</v>
+        <v>0.01238364671288746</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5061322944630708</v>
+        <v>0.5061322944630711</v>
       </c>
       <c r="H44" t="n">
-        <v>5.183427360669926</v>
+        <v>5.183427360669928</v>
       </c>
       <c r="I44" t="n">
-        <v>19.51266528228756</v>
+        <v>19.51266528228757</v>
       </c>
       <c r="J44" t="n">
-        <v>42.9573458271851</v>
+        <v>42.95734582718512</v>
       </c>
       <c r="K44" t="n">
-        <v>64.3819258518069</v>
+        <v>64.38192585180693</v>
       </c>
       <c r="L44" t="n">
-        <v>79.87147205848112</v>
+        <v>79.87147205848116</v>
       </c>
       <c r="M44" t="n">
-        <v>88.87240225013876</v>
+        <v>88.87240225013879</v>
       </c>
       <c r="N44" t="n">
-        <v>90.31045063178196</v>
+        <v>90.310450631782</v>
       </c>
       <c r="O44" t="n">
-        <v>85.2775976287148</v>
+        <v>85.27759762871483</v>
       </c>
       <c r="P44" t="n">
-        <v>72.78245660915772</v>
+        <v>72.78245660915776</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.65659381369898</v>
+        <v>54.656593813699</v>
       </c>
       <c r="R44" t="n">
-        <v>31.7933327420659</v>
+        <v>31.79333274206592</v>
       </c>
       <c r="S44" t="n">
         <v>11.53348966007724</v>
       </c>
       <c r="T44" t="n">
-        <v>2.215594119012094</v>
+        <v>2.215594119012095</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04049058355704566</v>
+        <v>0.04049058355704568</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2708046517025763</v>
+        <v>0.2708046517025764</v>
       </c>
       <c r="H45" t="n">
-        <v>2.615402820390671</v>
+        <v>2.615402820390673</v>
       </c>
       <c r="I45" t="n">
-        <v>9.323756648531685</v>
+        <v>9.323756648531688</v>
       </c>
       <c r="J45" t="n">
-        <v>25.58510088739121</v>
+        <v>25.58510088739122</v>
       </c>
       <c r="K45" t="n">
-        <v>43.72901255146382</v>
+        <v>43.72901255146385</v>
       </c>
       <c r="L45" t="n">
-        <v>58.79905387077211</v>
+        <v>58.79905387077213</v>
       </c>
       <c r="M45" t="n">
-        <v>68.61572249499048</v>
+        <v>68.61572249499051</v>
       </c>
       <c r="N45" t="n">
-        <v>70.43177649697839</v>
+        <v>70.43177649697842</v>
       </c>
       <c r="O45" t="n">
-        <v>64.43131553030551</v>
+        <v>64.43131553030554</v>
       </c>
       <c r="P45" t="n">
-        <v>51.71181107818757</v>
+        <v>51.7118110781876</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.56797624189377</v>
+        <v>34.56797624189379</v>
       </c>
       <c r="R45" t="n">
-        <v>16.81364319956873</v>
+        <v>16.81364319956874</v>
       </c>
       <c r="S45" t="n">
-        <v>5.030077631405306</v>
+        <v>5.030077631405309</v>
       </c>
       <c r="T45" t="n">
-        <v>1.091532784713454</v>
+        <v>1.091532784713455</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01781609550674845</v>
+        <v>0.01781609550674846</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,34 +34515,34 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.227033523069603</v>
+        <v>0.2270335230696031</v>
       </c>
       <c r="H46" t="n">
-        <v>2.018534414200654</v>
+        <v>2.018534414200655</v>
       </c>
       <c r="I46" t="n">
-        <v>6.82751722103861</v>
+        <v>6.827517221038613</v>
       </c>
       <c r="J46" t="n">
-        <v>16.05127008102093</v>
+        <v>16.05127008102094</v>
       </c>
       <c r="K46" t="n">
-        <v>26.37716749845024</v>
+        <v>26.37716749845025</v>
       </c>
       <c r="L46" t="n">
-        <v>33.75369305709354</v>
+        <v>33.75369305709355</v>
       </c>
       <c r="M46" t="n">
-        <v>35.58853671171968</v>
+        <v>35.5885367117197</v>
       </c>
       <c r="N46" t="n">
-        <v>34.74232085300573</v>
+        <v>34.74232085300575</v>
       </c>
       <c r="O46" t="n">
-        <v>32.09015651532899</v>
+        <v>32.09015651532901</v>
       </c>
       <c r="P46" t="n">
-        <v>27.45867264470907</v>
+        <v>27.45867264470908</v>
       </c>
       <c r="Q46" t="n">
         <v>19.01096164540104</v>
@@ -34551,13 +34551,13 @@
         <v>10.20825277365688</v>
       </c>
       <c r="S46" t="n">
-        <v>3.956575124767535</v>
+        <v>3.956575124767537</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9700523258428491</v>
+        <v>0.9700523258428495</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01238364671288745</v>
+        <v>0.01238364671288746</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>9.605247316954337</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.605247316954333</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.605247316954339</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>9.605247316954337</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="O3" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>10.00967878293136</v>
       </c>
       <c r="L4" t="n">
+        <v>9.605247316954339</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9.605247316954333</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>10.00967878293136</v>
@@ -34945,13 +34945,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>9.605247316954339</v>
       </c>
       <c r="O5" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="P5" t="n">
-        <v>9.605247316954333</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>9.605247316954337</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35097,16 @@
         <v>10.00967878293136</v>
       </c>
       <c r="L7" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="N7" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="O7" t="n">
         <v>9.605247316954333</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K8" t="n">
         <v>11.94294668035388</v>
@@ -35182,7 +35182,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>11.94294668035388</v>
@@ -35255,19 +35255,19 @@
         <v>11.94294668035388</v>
       </c>
       <c r="L9" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,13 +35334,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="M10" t="n">
         <v>11.46040338013756</v>
       </c>
       <c r="N10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>11.94294668035388</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>115.6831481229485</v>
+        <v>115.6831481229484</v>
       </c>
       <c r="K11" t="n">
-        <v>306.9479582202745</v>
+        <v>306.9479582202743</v>
       </c>
       <c r="L11" t="n">
-        <v>431.2708388109522</v>
+        <v>431.270838810952</v>
       </c>
       <c r="M11" t="n">
-        <v>486.0836812936622</v>
+        <v>486.0836812936619</v>
       </c>
       <c r="N11" t="n">
-        <v>472.4633381951314</v>
+        <v>472.4633381951311</v>
       </c>
       <c r="O11" t="n">
-        <v>393.3630364901634</v>
+        <v>393.3630364901632</v>
       </c>
       <c r="P11" t="n">
-        <v>303.2439681809288</v>
+        <v>303.2439681809286</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.042708648585</v>
+        <v>150.0427086485848</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>86.44787516325607</v>
+        <v>86.447875163256</v>
       </c>
       <c r="K12" t="n">
-        <v>275.5376515011495</v>
+        <v>193.5093305425716</v>
       </c>
       <c r="L12" t="n">
-        <v>428.3160691941214</v>
+        <v>428.3160691941212</v>
       </c>
       <c r="M12" t="n">
-        <v>558.5484028083507</v>
+        <v>558.5484028083505</v>
       </c>
       <c r="N12" t="n">
-        <v>147.9741968313481</v>
+        <v>586.8617220758896</v>
       </c>
       <c r="O12" t="n">
-        <v>460.5928819789429</v>
+        <v>460.5928819789427</v>
       </c>
       <c r="P12" t="n">
-        <v>356.8592042859627</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>193.9332588536052</v>
+        <v>193.9332588536051</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.75606281339982</v>
+        <v>59.75606281339977</v>
       </c>
       <c r="K13" t="n">
         <v>163.4822504152864</v>
       </c>
       <c r="L13" t="n">
-        <v>238.5384645149561</v>
+        <v>238.538464514956</v>
       </c>
       <c r="M13" t="n">
-        <v>257.9353553689178</v>
+        <v>257.9353553689177</v>
       </c>
       <c r="N13" t="n">
-        <v>257.522306805152</v>
+        <v>257.5223068051519</v>
       </c>
       <c r="O13" t="n">
-        <v>234.7098442312018</v>
+        <v>234.7098442312017</v>
       </c>
       <c r="P13" t="n">
-        <v>194.224660595378</v>
+        <v>194.2246605953779</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.02045264490107</v>
+        <v>84.02045264490101</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>115.6831481229485</v>
+        <v>115.6831481229484</v>
       </c>
       <c r="K14" t="n">
-        <v>306.9479582202745</v>
+        <v>306.9479582202744</v>
       </c>
       <c r="L14" t="n">
-        <v>431.2708388109522</v>
+        <v>431.2708388109521</v>
       </c>
       <c r="M14" t="n">
-        <v>486.0836812936622</v>
+        <v>486.083681293662</v>
       </c>
       <c r="N14" t="n">
-        <v>472.4633381951314</v>
+        <v>472.4633381951312</v>
       </c>
       <c r="O14" t="n">
-        <v>393.3630364901634</v>
+        <v>393.3630364901633</v>
       </c>
       <c r="P14" t="n">
-        <v>303.2439681809288</v>
+        <v>303.2439681809287</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.042708648585</v>
+        <v>150.0427086485849</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>86.44787516325607</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>275.5376515011495</v>
+        <v>275.5376515011494</v>
       </c>
       <c r="L15" t="n">
-        <v>428.3160691941214</v>
+        <v>428.3160691941213</v>
       </c>
       <c r="M15" t="n">
-        <v>119.6608775638092</v>
+        <v>206.108752727066</v>
       </c>
       <c r="N15" t="n">
-        <v>586.8617220758897</v>
+        <v>586.8617220758896</v>
       </c>
       <c r="O15" t="n">
-        <v>460.5928819789429</v>
+        <v>460.5928819789428</v>
       </c>
       <c r="P15" t="n">
-        <v>356.8592042859627</v>
+        <v>356.8592042859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>193.9332588536052</v>
+        <v>193.9332588536051</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.75606281339982</v>
+        <v>59.75606281339978</v>
       </c>
       <c r="K16" t="n">
         <v>163.4822504152864</v>
       </c>
       <c r="L16" t="n">
-        <v>238.5384645149561</v>
+        <v>238.538464514956</v>
       </c>
       <c r="M16" t="n">
         <v>257.9353553689178</v>
@@ -35823,7 +35823,7 @@
         <v>194.2246605953777</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.02045264490107</v>
+        <v>84.02045264490103</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>115.6831481229486</v>
+        <v>115.6831481229484</v>
       </c>
       <c r="K17" t="n">
-        <v>306.9479582202745</v>
+        <v>306.9479582202744</v>
       </c>
       <c r="L17" t="n">
-        <v>431.2708388109522</v>
+        <v>431.2708388109521</v>
       </c>
       <c r="M17" t="n">
-        <v>486.0836812936622</v>
+        <v>486.083681293662</v>
       </c>
       <c r="N17" t="n">
-        <v>472.4633381951314</v>
+        <v>472.4633381951312</v>
       </c>
       <c r="O17" t="n">
-        <v>393.3630364901634</v>
+        <v>393.3630364901633</v>
       </c>
       <c r="P17" t="n">
-        <v>303.2439681809288</v>
+        <v>303.2439681809287</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.042708648585</v>
+        <v>150.0427086485849</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>86.44787516325607</v>
+        <v>86.44787516325601</v>
       </c>
       <c r="K18" t="n">
-        <v>275.5376515011495</v>
+        <v>275.5376515011494</v>
       </c>
       <c r="L18" t="n">
-        <v>428.3160691941214</v>
+        <v>428.3160691941213</v>
       </c>
       <c r="M18" t="n">
-        <v>119.6608775638092</v>
+        <v>558.5484028083506</v>
       </c>
       <c r="N18" t="n">
-        <v>586.8617220758897</v>
+        <v>147.9741968313491</v>
       </c>
       <c r="O18" t="n">
-        <v>460.5928819789429</v>
+        <v>460.5928819789428</v>
       </c>
       <c r="P18" t="n">
-        <v>356.8592042859627</v>
+        <v>356.8592042859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>193.9332588536052</v>
+        <v>193.9332588536051</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>60.3207914829386</v>
+        <v>60.32079148293855</v>
       </c>
       <c r="L19" t="n">
-        <v>135.3770055826083</v>
+        <v>135.3770055826082</v>
       </c>
       <c r="M19" t="n">
-        <v>154.77389643657</v>
+        <v>154.7738964365699</v>
       </c>
       <c r="N19" t="n">
-        <v>154.3608478728042</v>
+        <v>154.3608478728041</v>
       </c>
       <c r="O19" t="n">
-        <v>131.548385298854</v>
+        <v>131.5483852988539</v>
       </c>
       <c r="P19" t="n">
-        <v>91.06320166303014</v>
+        <v>91.06320166303009</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>431.2708388109521</v>
       </c>
       <c r="M20" t="n">
-        <v>486.083681293662</v>
+        <v>486.0836812936622</v>
       </c>
       <c r="N20" t="n">
         <v>472.4633381951312</v>
@@ -36367,7 +36367,7 @@
         <v>486.083681293662</v>
       </c>
       <c r="N23" t="n">
-        <v>472.4633381951312</v>
+        <v>472.4633381951306</v>
       </c>
       <c r="O23" t="n">
         <v>393.3630364901633</v>
@@ -36443,10 +36443,10 @@
         <v>428.3160691941213</v>
       </c>
       <c r="M24" t="n">
-        <v>119.66087756381</v>
+        <v>558.5484028083506</v>
       </c>
       <c r="N24" t="n">
-        <v>586.8617220758896</v>
+        <v>147.9741968313491</v>
       </c>
       <c r="O24" t="n">
         <v>460.5928819789428</v>
@@ -36604,19 +36604,19 @@
         <v>589.2451402260098</v>
       </c>
       <c r="N26" t="n">
-        <v>575.624797127479</v>
+        <v>575.6247971274792</v>
       </c>
       <c r="O26" t="n">
         <v>496.5244954225111</v>
       </c>
       <c r="P26" t="n">
-        <v>406.4054271132765</v>
+        <v>406.4054271132766</v>
       </c>
       <c r="Q26" t="n">
         <v>253.2041675809327</v>
       </c>
       <c r="R26" t="n">
-        <v>45.22288803530857</v>
+        <v>45.2228880353086</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.75606281339978</v>
+        <v>59.75606281339981</v>
       </c>
       <c r="K28" t="n">
         <v>163.4822504152864</v>
       </c>
       <c r="L28" t="n">
-        <v>238.538464514956</v>
+        <v>238.5384645149561</v>
       </c>
       <c r="M28" t="n">
         <v>257.9353553689178</v>
@@ -36768,10 +36768,10 @@
         <v>234.7098442312018</v>
       </c>
       <c r="P28" t="n">
-        <v>194.2246605953779</v>
+        <v>194.224660595378</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.02045264490103</v>
+        <v>84.02045264490106</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>218.8446070552962</v>
+        <v>218.8446070552963</v>
       </c>
       <c r="K29" t="n">
         <v>410.1094171526222</v>
       </c>
       <c r="L29" t="n">
-        <v>534.4322977432998</v>
+        <v>534.4322977433001</v>
       </c>
       <c r="M29" t="n">
-        <v>589.2451402260098</v>
+        <v>512.7652638103391</v>
       </c>
       <c r="N29" t="n">
-        <v>575.624797127479</v>
+        <v>575.6247971274792</v>
       </c>
       <c r="O29" t="n">
-        <v>496.5244954225111</v>
+        <v>496.5244954225112</v>
       </c>
       <c r="P29" t="n">
-        <v>406.4054271132765</v>
+        <v>406.4054271132766</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.7242911652632</v>
+        <v>253.2041675809328</v>
       </c>
       <c r="R29" t="n">
-        <v>45.22288803530856</v>
+        <v>45.22288803530859</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>86.447875163256</v>
+        <v>86.44787516325604</v>
       </c>
       <c r="K30" t="n">
         <v>275.5376515011494</v>
       </c>
       <c r="L30" t="n">
-        <v>428.3160691941212</v>
+        <v>428.3160691941213</v>
       </c>
       <c r="M30" t="n">
-        <v>119.6608775638098</v>
+        <v>558.5484028083506</v>
       </c>
       <c r="N30" t="n">
-        <v>586.8617220758896</v>
+        <v>147.9741968313484</v>
       </c>
       <c r="O30" t="n">
-        <v>460.5928819789427</v>
+        <v>460.5928819789428</v>
       </c>
       <c r="P30" t="n">
         <v>356.8592042859626</v>
       </c>
       <c r="Q30" t="n">
-        <v>193.9332588536051</v>
+        <v>193.9332588536052</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,19 +36996,19 @@
         <v>238.538464514956</v>
       </c>
       <c r="M31" t="n">
-        <v>257.9353553689177</v>
+        <v>257.9353553689178</v>
       </c>
       <c r="N31" t="n">
-        <v>257.5223068051519</v>
+        <v>257.522306805152</v>
       </c>
       <c r="O31" t="n">
-        <v>234.7098442312017</v>
+        <v>234.7098442312018</v>
       </c>
       <c r="P31" t="n">
         <v>194.2246605953779</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.02045264490103</v>
+        <v>84.02045264490104</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>130.7083703208061</v>
+        <v>219.3447821257175</v>
       </c>
       <c r="K32" t="n">
-        <v>410.6095922230434</v>
+        <v>410.6095922230435</v>
       </c>
       <c r="L32" t="n">
         <v>534.9324728137211</v>
       </c>
       <c r="M32" t="n">
-        <v>589.7453152964309</v>
+        <v>501.1089034915181</v>
       </c>
       <c r="N32" t="n">
-        <v>576.1249721979002</v>
+        <v>576.1249721979003</v>
       </c>
       <c r="O32" t="n">
         <v>497.0246704929323</v>
@@ -37090,7 +37090,7 @@
         <v>253.7043426513539</v>
       </c>
       <c r="R32" t="n">
-        <v>45.72306310572975</v>
+        <v>45.72306310572979</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.25623788382096</v>
+        <v>60.256237883821</v>
       </c>
       <c r="K34" t="n">
-        <v>151.8157345165234</v>
+        <v>163.9824254857076</v>
       </c>
       <c r="L34" t="n">
-        <v>239.0386395853772</v>
+        <v>239.0386395853773</v>
       </c>
       <c r="M34" t="n">
-        <v>258.4355304393389</v>
+        <v>258.435530439339</v>
       </c>
       <c r="N34" t="n">
-        <v>258.0224818755731</v>
+        <v>258.0224818755732</v>
       </c>
       <c r="O34" t="n">
-        <v>235.2100193016229</v>
+        <v>223.043328332438</v>
       </c>
       <c r="P34" t="n">
         <v>194.7248356657991</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.52062771532221</v>
+        <v>84.52062771532225</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>306.9479582202744</v>
       </c>
       <c r="L35" t="n">
-        <v>431.2708388109514</v>
+        <v>431.2708388109521</v>
       </c>
       <c r="M35" t="n">
         <v>486.083681293662</v>
@@ -37324,7 +37324,7 @@
         <v>303.2439681809287</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.0427086485849</v>
+        <v>150.0427086485868</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>86.44787516325601</v>
       </c>
       <c r="K36" t="n">
-        <v>264.9661954507301</v>
+        <v>275.5376515011494</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>428.3160691941213</v>
       </c>
       <c r="M36" t="n">
         <v>558.5484028083506</v>
@@ -37400,10 +37400,10 @@
         <v>460.5928819789428</v>
       </c>
       <c r="P36" t="n">
-        <v>356.8592042859626</v>
+        <v>111.904937895027</v>
       </c>
       <c r="Q36" t="n">
-        <v>193.9332588536051</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37631,10 +37631,10 @@
         <v>558.5484028083506</v>
       </c>
       <c r="N39" t="n">
-        <v>147.9741968313491</v>
+        <v>586.8617220758896</v>
       </c>
       <c r="O39" t="n">
-        <v>460.5928819789428</v>
+        <v>21.70535673440214</v>
       </c>
       <c r="P39" t="n">
         <v>356.8592042859626</v>
@@ -37786,7 +37786,7 @@
         <v>431.2708388109521</v>
       </c>
       <c r="M41" t="n">
-        <v>486.0836812936619</v>
+        <v>486.083681293662</v>
       </c>
       <c r="N41" t="n">
         <v>472.4633381951312</v>
@@ -37795,10 +37795,10 @@
         <v>393.3630364901633</v>
       </c>
       <c r="P41" t="n">
-        <v>303.2439681809286</v>
+        <v>303.2439681809287</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.0427086485848</v>
+        <v>150.0427086485849</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37865,13 +37865,13 @@
         <v>428.3160691941213</v>
       </c>
       <c r="M42" t="n">
-        <v>119.66087756381</v>
+        <v>558.5484028083506</v>
       </c>
       <c r="N42" t="n">
         <v>586.8617220758896</v>
       </c>
       <c r="O42" t="n">
-        <v>460.5928819789427</v>
+        <v>21.70535673440214</v>
       </c>
       <c r="P42" t="n">
         <v>356.8592042859626</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.09462095177591</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>182.8208085536625</v>
+        <v>60.32079148293855</v>
       </c>
       <c r="L43" t="n">
-        <v>135.828255247277</v>
+        <v>135.3770055826082</v>
       </c>
       <c r="M43" t="n">
-        <v>154.7738964365699</v>
+        <v>277.2739135072939</v>
       </c>
       <c r="N43" t="n">
-        <v>154.3608478728041</v>
+        <v>253.0477247766968</v>
       </c>
       <c r="O43" t="n">
-        <v>254.0484023695779</v>
+        <v>131.5483852988539</v>
       </c>
       <c r="P43" t="n">
         <v>213.563218733754</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>103.3590107832771</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>115.6831481229482</v>
+        <v>115.6831481229484</v>
       </c>
       <c r="K44" t="n">
         <v>306.9479582202744</v>
@@ -38023,19 +38023,19 @@
         <v>431.2708388109521</v>
       </c>
       <c r="M44" t="n">
-        <v>486.0836812936619</v>
+        <v>486.083681293662</v>
       </c>
       <c r="N44" t="n">
-        <v>472.4633381951312</v>
+        <v>472.4633381951325</v>
       </c>
       <c r="O44" t="n">
         <v>393.3630364901633</v>
       </c>
       <c r="P44" t="n">
-        <v>303.2439681809286</v>
+        <v>303.2439681809287</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.0427086485848</v>
+        <v>150.0427086485849</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>86.44787516325601</v>
+        <v>75.8764191128368</v>
       </c>
       <c r="K45" t="n">
-        <v>264.9661954507303</v>
+        <v>275.5376515011494</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>558.5484028083505</v>
+        <v>558.5484028083506</v>
       </c>
       <c r="N45" t="n">
         <v>586.8617220758896</v>
       </c>
       <c r="O45" t="n">
-        <v>460.5928819789427</v>
+        <v>460.5928819789428</v>
       </c>
       <c r="P45" t="n">
         <v>356.8592042859626</v>
@@ -38175,25 +38175,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>60.32079148293853</v>
+        <v>182.8208085536625</v>
       </c>
       <c r="L46" t="n">
-        <v>135.3770055826082</v>
+        <v>234.0638824864997</v>
       </c>
       <c r="M46" t="n">
         <v>277.2739135072939</v>
       </c>
       <c r="N46" t="n">
-        <v>276.860864943528</v>
+        <v>154.3608478728041</v>
       </c>
       <c r="O46" t="n">
-        <v>254.0484023695779</v>
+        <v>131.5483852988539</v>
       </c>
       <c r="P46" t="n">
-        <v>170.6090722794748</v>
+        <v>91.06320166303009</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>103.3590107832772</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
